--- a/output/results_cv.xlsx
+++ b/output/results_cv.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Random Forest" sheetId="1" r:id="rId1"/>
     <sheet name="Ridge" sheetId="2" r:id="rId2"/>
     <sheet name="Huber" sheetId="3" r:id="rId3"/>
+    <sheet name="Final Models Results" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
   <si>
     <t>MSE</t>
   </si>
@@ -364,6 +365,30 @@
   </si>
   <si>
     <t>{'alpha': 100, 'epsilon': 3}</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>Huber</t>
+  </si>
+  <si>
+    <t>N_Estimators = 50</t>
+  </si>
+  <si>
+    <t>Alpha = 5</t>
+  </si>
+  <si>
+    <t>Alpha = 10, Epsilon = 3</t>
   </si>
 </sst>
 </file>
@@ -6000,4 +6025,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2">
+        <v>0.1718197289417877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
+        <v>0.1956336659664253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>0.2023400465004621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/results_cv.xlsx
+++ b/output/results_cv.xlsx
@@ -765,10 +765,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.2656560894230285</v>
+        <v>0.2695048247203761</v>
       </c>
       <c r="C2">
-        <v>3.080580472946167</v>
+        <v>7.701433420181274</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -776,10 +776,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2129544022037799</v>
+        <v>0.2185742758193154</v>
       </c>
       <c r="C3">
-        <v>7.525535583496094</v>
+        <v>13.08662867546082</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -787,10 +787,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1947840712673049</v>
+        <v>0.1990019149362797</v>
       </c>
       <c r="C4">
-        <v>14.8740873336792</v>
+        <v>20.41412353515625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -798,10 +798,10 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.1865258331370863</v>
+        <v>0.1908603987245149</v>
       </c>
       <c r="C5">
-        <v>36.8899290561676</v>
+        <v>46.03089833259583</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -809,10 +809,10 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>0.1805135113350594</v>
+        <v>0.1868727122403358</v>
       </c>
       <c r="C6">
-        <v>78.62617921829224</v>
+        <v>117.1077632904053</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -820,10 +820,10 @@
         <v>100</v>
       </c>
       <c r="B7">
-        <v>0.1786136466771195</v>
+        <v>0.1844268873810161</v>
       </c>
       <c r="C7">
-        <v>151.7270860671997</v>
+        <v>277.2422680854797</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -831,10 +831,10 @@
         <v>200</v>
       </c>
       <c r="B8">
-        <v>0.1777000221997679</v>
+        <v>0.1837679453553734</v>
       </c>
       <c r="C8">
-        <v>304.4904475212097</v>
+        <v>395.676198720932</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -842,10 +842,10 @@
         <v>300</v>
       </c>
       <c r="B9">
-        <v>0.177597481543817</v>
+        <v>0.1834416916512285</v>
       </c>
       <c r="C9">
-        <v>464.5016853809357</v>
+        <v>607.1510829925537</v>
       </c>
     </row>
   </sheetData>
@@ -874,10 +874,10 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.202466936613613</v>
+        <v>0.2024607710946892</v>
       </c>
       <c r="C2">
-        <v>1.657164573669434</v>
+        <v>0.5575089454650879</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -885,10 +885,10 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.2024586274881095</v>
+        <v>0.2024524549508304</v>
       </c>
       <c r="C3">
-        <v>1.996167182922363</v>
+        <v>0.5914177894592285</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -896,10 +896,10 @@
         <v>0.1</v>
       </c>
       <c r="B4">
-        <v>0.2023852113162841</v>
+        <v>0.2023789811544693</v>
       </c>
       <c r="C4">
-        <v>0.6795210838317871</v>
+        <v>3.26359224319458</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -907,10 +907,10 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>0.2022679415326921</v>
+        <v>0.2022616419475848</v>
       </c>
       <c r="C5">
-        <v>0.6724321842193604</v>
+        <v>1.13197135925293</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -918,10 +918,10 @@
         <v>0.5</v>
       </c>
       <c r="B6">
-        <v>0.2021899360751557</v>
+        <v>0.202183615292426</v>
       </c>
       <c r="C6">
-        <v>0.7263550758361816</v>
+        <v>1.04321026802063</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.2020796359516759</v>
+        <v>0.2020733553548142</v>
       </c>
       <c r="C7">
-        <v>0.6975090503692627</v>
+        <v>1.090082168579102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -940,10 +940,10 @@
         <v>1.5</v>
       </c>
       <c r="B8">
-        <v>0.2020260153035134</v>
+        <v>0.2020198240195617</v>
       </c>
       <c r="C8">
-        <v>0.6792888641357422</v>
+        <v>1.075128316879272</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -951,10 +951,10 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.2019979773373632</v>
+        <v>0.2019918873886019</v>
       </c>
       <c r="C9">
-        <v>0.6946892738342285</v>
+        <v>0.9813754558563232</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -962,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.201987429739446</v>
+        <v>0.2019818774714323</v>
       </c>
       <c r="C10">
-        <v>0.6630098819732666</v>
+        <v>1.118005990982056</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -973,10 +973,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.202082716290492</v>
+        <v>0.2020777522898863</v>
       </c>
       <c r="C11">
-        <v>0.6619663238525391</v>
+        <v>0.9913485050201416</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -984,10 +984,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2023230556586673</v>
+        <v>0.2023188252404849</v>
       </c>
       <c r="C12">
-        <v>0.661738395690918</v>
+        <v>0.9843699932098389</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -995,10 +995,10 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>0.2031168943143497</v>
+        <v>0.203114036807684</v>
       </c>
       <c r="C13">
-        <v>0.6636521816253662</v>
+        <v>1.065149545669556</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1006,10 +1006,10 @@
         <v>100</v>
       </c>
       <c r="B14">
-        <v>0.2044199296682737</v>
+        <v>0.2044185939277955</v>
       </c>
       <c r="C14">
-        <v>0.6609237194061279</v>
+        <v>0.9753913879394531</v>
       </c>
     </row>
   </sheetData>
@@ -1077,16 +1077,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.849062824249267</v>
+        <v>6.282621097564697</v>
       </c>
       <c r="C2">
-        <v>0.5373848267201669</v>
+        <v>0.6065154507609443</v>
       </c>
       <c r="D2">
-        <v>0.003373241424560547</v>
+        <v>0.00658106803894043</v>
       </c>
       <c r="E2">
-        <v>0.0002381709052150124</v>
+        <v>0.00101679617854479</v>
       </c>
       <c r="F2">
         <v>1E-06</v>
@@ -1098,28 +1098,28 @@
         <v>17</v>
       </c>
       <c r="I2">
-        <v>-0.2223255273836561</v>
+        <v>-0.2159044991045987</v>
       </c>
       <c r="J2">
-        <v>-0.2212860843275703</v>
+        <v>-0.2207383487818816</v>
       </c>
       <c r="K2">
-        <v>-0.228960381780552</v>
+        <v>-0.2321395313651744</v>
       </c>
       <c r="L2">
-        <v>-0.2239153222422324</v>
+        <v>-0.2214392393687828</v>
       </c>
       <c r="M2">
-        <v>-0.2270264079664726</v>
+        <v>-0.2242138155771739</v>
       </c>
       <c r="N2">
-        <v>-0.2247027447400967</v>
+        <v>-0.2228870868395222</v>
       </c>
       <c r="O2">
-        <v>0.002879987808387364</v>
+        <v>0.005344863101303242</v>
       </c>
       <c r="P2">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1127,16 +1127,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.33772668838501</v>
+        <v>8.553575754165649</v>
       </c>
       <c r="C3">
-        <v>0.4559941637435866</v>
+        <v>1.750624104128029</v>
       </c>
       <c r="D3">
-        <v>0.002183246612548828</v>
+        <v>0.006979560852050782</v>
       </c>
       <c r="E3">
-        <v>0.0004744270308030334</v>
+        <v>0.001784542953209704</v>
       </c>
       <c r="F3">
         <v>1E-06</v>
@@ -1148,28 +1148,28 @@
         <v>18</v>
       </c>
       <c r="I3">
-        <v>-0.209870194747131</v>
+        <v>-0.2140889335557871</v>
       </c>
       <c r="J3">
-        <v>-0.2279530700542476</v>
+        <v>-0.2181963870944564</v>
       </c>
       <c r="K3">
-        <v>-0.2323452759618215</v>
+        <v>-0.2239815459393029</v>
       </c>
       <c r="L3">
-        <v>-0.2177061418708285</v>
+        <v>-0.2221957925041143</v>
       </c>
       <c r="M3">
-        <v>-0.224744018783552</v>
+        <v>-0.2195026470093364</v>
       </c>
       <c r="N3">
-        <v>-0.2225237402835161</v>
+        <v>-0.2195930612205994</v>
       </c>
       <c r="O3">
-        <v>0.007927058604105326</v>
+        <v>0.003414302357884229</v>
       </c>
       <c r="P3">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1177,16 +1177,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.143262720108032</v>
+        <v>8.74207592010498</v>
       </c>
       <c r="C4">
-        <v>0.05673950075375319</v>
+        <v>1.654438308501941</v>
       </c>
       <c r="D4">
-        <v>0.001943254470825195</v>
+        <v>0.009174728393554687</v>
       </c>
       <c r="E4">
-        <v>3.713107405985058E-05</v>
+        <v>0.005440998614380745</v>
       </c>
       <c r="F4">
         <v>1E-06</v>
@@ -1198,28 +1198,28 @@
         <v>19</v>
       </c>
       <c r="I4">
-        <v>-0.2066533983628499</v>
+        <v>-0.2141173886626138</v>
       </c>
       <c r="J4">
-        <v>-0.2203077805391729</v>
+        <v>-0.2146023018335152</v>
       </c>
       <c r="K4">
-        <v>-0.2242662615543854</v>
+        <v>-0.2253277985165084</v>
       </c>
       <c r="L4">
-        <v>-0.2163300143339927</v>
+        <v>-0.2207617910662103</v>
       </c>
       <c r="M4">
-        <v>-0.2229719104069623</v>
+        <v>-0.2194019760985585</v>
       </c>
       <c r="N4">
-        <v>-0.2181058730394726</v>
+        <v>-0.2188422512354812</v>
       </c>
       <c r="O4">
-        <v>0.006337033269823104</v>
+        <v>0.004156001585232053</v>
       </c>
       <c r="P4">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1227,16 +1227,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.003585147857666</v>
+        <v>8.030604553222656</v>
       </c>
       <c r="C5">
-        <v>0.9061529796621303</v>
+        <v>1.71744236356824</v>
       </c>
       <c r="D5">
-        <v>0.003290700912475586</v>
+        <v>0.00538473129272461</v>
       </c>
       <c r="E5">
-        <v>0.0001203924968953283</v>
+        <v>0.001492215321300822</v>
       </c>
       <c r="F5">
         <v>1E-06</v>
@@ -1248,28 +1248,28 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <v>-0.207024605567039</v>
+        <v>-0.2070534555216015</v>
       </c>
       <c r="J5">
-        <v>-0.2213044854270642</v>
+        <v>-0.2141699163525259</v>
       </c>
       <c r="K5">
-        <v>-0.2230338397611286</v>
+        <v>-0.2249967447880726</v>
       </c>
       <c r="L5">
-        <v>-0.2166790081763967</v>
+        <v>-0.2158000650408928</v>
       </c>
       <c r="M5">
-        <v>-0.2251504926637544</v>
+        <v>-0.2165794710870675</v>
       </c>
       <c r="N5">
-        <v>-0.2186384863190766</v>
+        <v>-0.2157199305580321</v>
       </c>
       <c r="O5">
-        <v>0.006442898268196735</v>
+        <v>0.005732623261813484</v>
       </c>
       <c r="P5">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1277,16 +1277,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.829869651794434</v>
+        <v>5.624758577346801</v>
       </c>
       <c r="C6">
-        <v>0.5292209091371548</v>
+        <v>0.2367075739042374</v>
       </c>
       <c r="D6">
-        <v>0.004377269744873047</v>
+        <v>0.004187870025634766</v>
       </c>
       <c r="E6">
-        <v>0.00233513665980035</v>
+        <v>0.0009777589054659039</v>
       </c>
       <c r="F6">
         <v>1E-06</v>
@@ -1298,28 +1298,28 @@
         <v>21</v>
       </c>
       <c r="I6">
-        <v>-0.2129354353614907</v>
+        <v>-0.2124261683611809</v>
       </c>
       <c r="J6">
-        <v>-0.2254309726870684</v>
+        <v>-0.2140910198797587</v>
       </c>
       <c r="K6">
-        <v>-0.2193348467896128</v>
+        <v>-0.2182474573949475</v>
       </c>
       <c r="L6">
-        <v>-0.2154061361382676</v>
+        <v>-0.210981543237406</v>
       </c>
       <c r="M6">
-        <v>-0.2181434393456058</v>
+        <v>-0.2133701946239811</v>
       </c>
       <c r="N6">
-        <v>-0.2182501660644091</v>
+        <v>-0.2138232766994549</v>
       </c>
       <c r="O6">
-        <v>0.00422106089237039</v>
+        <v>0.002444491987398919</v>
       </c>
       <c r="P6">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1327,16 +1327,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.770368194580078</v>
+        <v>5.8998215675354</v>
       </c>
       <c r="C7">
-        <v>0.5323161117678293</v>
+        <v>0.1557626044451329</v>
       </c>
       <c r="D7">
-        <v>0.002563238143920898</v>
+        <v>0.004587650299072266</v>
       </c>
       <c r="E7">
-        <v>0.0008894393675655368</v>
+        <v>0.0007986428395288194</v>
       </c>
       <c r="F7">
         <v>1E-06</v>
@@ -1348,28 +1348,28 @@
         <v>22</v>
       </c>
       <c r="I7">
-        <v>-0.2073478483317589</v>
+        <v>-0.2049212981700818</v>
       </c>
       <c r="J7">
-        <v>-0.2284945734063956</v>
+        <v>-0.2171343726607161</v>
       </c>
       <c r="K7">
-        <v>-0.229034092789302</v>
+        <v>-0.2185880320114629</v>
       </c>
       <c r="L7">
-        <v>-0.2123693762327795</v>
+        <v>-0.2165411044190771</v>
       </c>
       <c r="M7">
-        <v>-0.218382228989583</v>
+        <v>-0.2177762654321492</v>
       </c>
       <c r="N7">
-        <v>-0.2191256239499638</v>
+        <v>-0.2149922145386974</v>
       </c>
       <c r="O7">
-        <v>0.008612438521733202</v>
+        <v>0.005081182942183829</v>
       </c>
       <c r="P7">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1377,16 +1377,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.084086322784424</v>
+        <v>6.216974353790283</v>
       </c>
       <c r="C8">
-        <v>1.247484537575396</v>
+        <v>0.1093824943347172</v>
       </c>
       <c r="D8">
-        <v>0.004591560363769532</v>
+        <v>0.004388046264648437</v>
       </c>
       <c r="E8">
-        <v>0.002311382213902374</v>
+        <v>0.0004892396275998815</v>
       </c>
       <c r="F8">
         <v>1E-06</v>
@@ -1398,28 +1398,28 @@
         <v>23</v>
       </c>
       <c r="I8">
-        <v>-0.2128774771433659</v>
+        <v>-0.20553574002357</v>
       </c>
       <c r="J8">
-        <v>-0.2238619434476804</v>
+        <v>-0.215175928359754</v>
       </c>
       <c r="K8">
-        <v>-0.2199682986916956</v>
+        <v>-0.2160806491994235</v>
       </c>
       <c r="L8">
-        <v>-0.2150345805730137</v>
+        <v>-0.2207566555628584</v>
       </c>
       <c r="M8">
-        <v>-0.2152342016009987</v>
+        <v>-0.2140042161620956</v>
       </c>
       <c r="N8">
-        <v>-0.2173953002913508</v>
+        <v>-0.2143106378615403</v>
       </c>
       <c r="O8">
-        <v>0.003977231841719497</v>
+        <v>0.004950263393253857</v>
       </c>
       <c r="P8">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1427,16 +1427,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.209513568878174</v>
+        <v>6.2889817237854</v>
       </c>
       <c r="C9">
-        <v>0.8201633562399606</v>
+        <v>0.1031242245525312</v>
       </c>
       <c r="D9">
-        <v>0.004359865188598632</v>
+        <v>0.004387664794921875</v>
       </c>
       <c r="E9">
-        <v>0.002345594608307183</v>
+        <v>0.0004887733782725582</v>
       </c>
       <c r="F9">
         <v>1E-06</v>
@@ -1448,28 +1448,28 @@
         <v>24</v>
       </c>
       <c r="I9">
-        <v>-0.20746135624902</v>
+        <v>-0.2103827211211104</v>
       </c>
       <c r="J9">
-        <v>-0.2141711072579477</v>
+        <v>-0.2130852269478201</v>
       </c>
       <c r="K9">
-        <v>-0.2172317079296457</v>
+        <v>-0.2202094263895713</v>
       </c>
       <c r="L9">
-        <v>-0.209522040313974</v>
+        <v>-0.2170792070534857</v>
       </c>
       <c r="M9">
-        <v>-0.219573285223125</v>
+        <v>-0.2150507552827549</v>
       </c>
       <c r="N9">
-        <v>-0.2135918993947425</v>
+        <v>-0.2151614673589484</v>
       </c>
       <c r="O9">
-        <v>0.004549900582351366</v>
+        <v>0.003356160393220807</v>
       </c>
       <c r="P9">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1477,16 +1477,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.198500013351441</v>
+        <v>6.35719861984253</v>
       </c>
       <c r="C10">
-        <v>0.9467636789065101</v>
+        <v>0.1767223576041955</v>
       </c>
       <c r="D10">
-        <v>0.002427530288696289</v>
+        <v>0.004188394546508789</v>
       </c>
       <c r="E10">
-        <v>0.0006304236892325388</v>
+        <v>0.0007463913409212833</v>
       </c>
       <c r="F10">
         <v>1E-06</v>
@@ -1498,28 +1498,28 @@
         <v>25</v>
       </c>
       <c r="I10">
-        <v>-0.2036688814799677</v>
+        <v>-0.2062424796597327</v>
       </c>
       <c r="J10">
-        <v>-0.2129590441251856</v>
+        <v>-0.218608174360968</v>
       </c>
       <c r="K10">
-        <v>-0.2166821446953237</v>
+        <v>-0.2177239909312137</v>
       </c>
       <c r="L10">
-        <v>-0.2136404423495059</v>
+        <v>-0.2157012796340311</v>
       </c>
       <c r="M10">
-        <v>-0.2155437670594766</v>
+        <v>-0.2117401264932518</v>
       </c>
       <c r="N10">
-        <v>-0.2124988559418919</v>
+        <v>-0.2140032102158395</v>
       </c>
       <c r="O10">
-        <v>0.004609877009138195</v>
+        <v>0.00454497151495469</v>
       </c>
       <c r="P10">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1527,16 +1527,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.527848291397095</v>
+        <v>6.606930828094482</v>
       </c>
       <c r="C11">
-        <v>1.50317395873274</v>
+        <v>0.09481534310757421</v>
       </c>
       <c r="D11">
-        <v>0.003018951416015625</v>
+        <v>0.004188680648803711</v>
       </c>
       <c r="E11">
-        <v>0.0006048741206874194</v>
+        <v>0.0003982067821896836</v>
       </c>
       <c r="F11">
         <v>1E-06</v>
@@ -1548,28 +1548,28 @@
         <v>26</v>
       </c>
       <c r="I11">
-        <v>-0.2042022546809436</v>
+        <v>-0.2091768195117243</v>
       </c>
       <c r="J11">
-        <v>-0.2145534992701825</v>
+        <v>-0.2143443985735466</v>
       </c>
       <c r="K11">
-        <v>-0.2175035336183352</v>
+        <v>-0.2134826792296192</v>
       </c>
       <c r="L11">
-        <v>-0.2121636825489497</v>
+        <v>-0.2094214554721726</v>
       </c>
       <c r="M11">
-        <v>-0.2128213415556725</v>
+        <v>-0.2134536235986363</v>
       </c>
       <c r="N11">
-        <v>-0.2122488623348167</v>
+        <v>-0.2119757952771398</v>
       </c>
       <c r="O11">
-        <v>0.004427319832388181</v>
+        <v>0.002210152689043419</v>
       </c>
       <c r="P11">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1577,16 +1577,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.547392177581787</v>
+        <v>6.532329940795899</v>
       </c>
       <c r="C12">
-        <v>1.00842704264424</v>
+        <v>0.1251837140863097</v>
       </c>
       <c r="D12">
-        <v>0.003018522262573242</v>
+        <v>0.004189920425415039</v>
       </c>
       <c r="E12">
-        <v>0.0005823741191609226</v>
+        <v>0.0007459840879136351</v>
       </c>
       <c r="F12">
         <v>1E-06</v>
@@ -1598,28 +1598,28 @@
         <v>27</v>
       </c>
       <c r="I12">
-        <v>-0.206437106076746</v>
+        <v>-0.2072790954119275</v>
       </c>
       <c r="J12">
-        <v>-0.2130653067404567</v>
+        <v>-0.214949195995604</v>
       </c>
       <c r="K12">
-        <v>-0.2180444048789426</v>
+        <v>-0.2177950447457011</v>
       </c>
       <c r="L12">
-        <v>-0.2121821430013762</v>
+        <v>-0.21021617724141</v>
       </c>
       <c r="M12">
-        <v>-0.211030798530242</v>
+        <v>-0.2123285042314553</v>
       </c>
       <c r="N12">
-        <v>-0.2121519518455527</v>
+        <v>-0.2125136035252196</v>
       </c>
       <c r="O12">
-        <v>0.003727534797646329</v>
+        <v>0.003647964816535553</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1627,16 +1627,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.294646883010864</v>
+        <v>4.059542751312256</v>
       </c>
       <c r="C13">
-        <v>1.010195841310589</v>
+        <v>0.07482119956170606</v>
       </c>
       <c r="D13">
-        <v>0.002849435806274414</v>
+        <v>0.004189825057983399</v>
       </c>
       <c r="E13">
-        <v>0.0007377918245204038</v>
+        <v>0.0003999000903933306</v>
       </c>
       <c r="F13">
         <v>1E-05</v>
@@ -1648,28 +1648,28 @@
         <v>28</v>
       </c>
       <c r="I13">
-        <v>-0.2219929430636992</v>
+        <v>-0.2208253886133419</v>
       </c>
       <c r="J13">
-        <v>-0.2265799266266433</v>
+        <v>-0.2167845261221931</v>
       </c>
       <c r="K13">
-        <v>-0.2349364727626848</v>
+        <v>-0.2305974808910251</v>
       </c>
       <c r="L13">
-        <v>-0.228829707728748</v>
+        <v>-0.2245349588981194</v>
       </c>
       <c r="M13">
-        <v>-0.2257252830517035</v>
+        <v>-0.2244770113792971</v>
       </c>
       <c r="N13">
-        <v>-0.2276128666466957</v>
+        <v>-0.2234438731807953</v>
       </c>
       <c r="O13">
-        <v>0.004273859771984875</v>
+        <v>0.004574610596073002</v>
       </c>
       <c r="P13">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1677,16 +1677,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.069055509567261</v>
+        <v>4.910872220993042</v>
       </c>
       <c r="C14">
-        <v>0.0971906031383085</v>
+        <v>0.1296745689069201</v>
       </c>
       <c r="D14">
-        <v>0.003256511688232422</v>
+        <v>0.004587650299072266</v>
       </c>
       <c r="E14">
-        <v>9.954818244497134E-05</v>
+        <v>0.0007980466685842454</v>
       </c>
       <c r="F14">
         <v>1E-05</v>
@@ -1698,28 +1698,28 @@
         <v>29</v>
       </c>
       <c r="I14">
-        <v>-0.2133646605916663</v>
+        <v>-0.2159422356160838</v>
       </c>
       <c r="J14">
-        <v>-0.224789295255697</v>
+        <v>-0.2168118872075868</v>
       </c>
       <c r="K14">
-        <v>-0.2184419910197345</v>
+        <v>-0.2210584128275869</v>
       </c>
       <c r="L14">
-        <v>-0.2283983512482026</v>
+        <v>-0.221161576852481</v>
       </c>
       <c r="M14">
-        <v>-0.2188263802567543</v>
+        <v>-0.2235763310775531</v>
       </c>
       <c r="N14">
-        <v>-0.2207641356744109</v>
+        <v>-0.2197100887162583</v>
       </c>
       <c r="O14">
-        <v>0.005260848609074403</v>
+        <v>0.002879892868994132</v>
       </c>
       <c r="P14">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1727,16 +1727,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.510686922073364</v>
+        <v>5.805910444259643</v>
       </c>
       <c r="C15">
-        <v>0.8194712840709534</v>
+        <v>0.1712496270171853</v>
       </c>
       <c r="D15">
-        <v>0.003098487854003906</v>
+        <v>0.004587888717651367</v>
       </c>
       <c r="E15">
-        <v>0.0006496593660305142</v>
+        <v>0.0007981062985962164</v>
       </c>
       <c r="F15">
         <v>1E-05</v>
@@ -1748,28 +1748,28 @@
         <v>30</v>
       </c>
       <c r="I15">
-        <v>-0.2083000443933527</v>
+        <v>-0.2087497794594304</v>
       </c>
       <c r="J15">
-        <v>-0.2235281447954121</v>
+        <v>-0.2143007643753012</v>
       </c>
       <c r="K15">
-        <v>-0.2327823905590677</v>
+        <v>-0.2245184839643206</v>
       </c>
       <c r="L15">
-        <v>-0.217665692408189</v>
+        <v>-0.2189135234707516</v>
       </c>
       <c r="M15">
-        <v>-0.2204258834759495</v>
+        <v>-0.2194482803433182</v>
       </c>
       <c r="N15">
-        <v>-0.2205404311263942</v>
+        <v>-0.2171861663226244</v>
       </c>
       <c r="O15">
-        <v>0.007961109407059404</v>
+        <v>0.005317179181890032</v>
       </c>
       <c r="P15">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1777,16 +1777,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.915548801422119</v>
+        <v>5.696365594863892</v>
       </c>
       <c r="C16">
-        <v>0.9586281867578051</v>
+        <v>0.1343682636257799</v>
       </c>
       <c r="D16">
-        <v>0.002936649322509766</v>
+        <v>0.004587984085083008</v>
       </c>
       <c r="E16">
-        <v>0.0005824390393899086</v>
+        <v>0.0004885975783494126</v>
       </c>
       <c r="F16">
         <v>1E-05</v>
@@ -1798,28 +1798,28 @@
         <v>31</v>
       </c>
       <c r="I16">
-        <v>-0.2068544748912967</v>
+        <v>-0.2085671914840082</v>
       </c>
       <c r="J16">
-        <v>-0.2215107500412848</v>
+        <v>-0.2123080342270048</v>
       </c>
       <c r="K16">
-        <v>-0.2219298213510578</v>
+        <v>-0.2215508856335851</v>
       </c>
       <c r="L16">
-        <v>-0.225048800125035</v>
+        <v>-0.2132189714680509</v>
       </c>
       <c r="M16">
-        <v>-0.2212956788196198</v>
+        <v>-0.2222537406573296</v>
       </c>
       <c r="N16">
-        <v>-0.2193279050456588</v>
+        <v>-0.2155797646939957</v>
       </c>
       <c r="O16">
-        <v>0.006383134256549862</v>
+        <v>0.005397221291814881</v>
       </c>
       <c r="P16">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1827,16 +1827,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.19978289604187</v>
+        <v>6.079741239547729</v>
       </c>
       <c r="C17">
-        <v>0.4882313372971686</v>
+        <v>0.09651681890071941</v>
       </c>
       <c r="D17">
-        <v>0.002878808975219727</v>
+        <v>0.004786968231201172</v>
       </c>
       <c r="E17">
-        <v>0.0004883471971547176</v>
+        <v>0.0009773308066482037</v>
       </c>
       <c r="F17">
         <v>1E-05</v>
@@ -1848,28 +1848,28 @@
         <v>32</v>
       </c>
       <c r="I17">
-        <v>-0.2092525304439003</v>
+        <v>-0.2149594891961583</v>
       </c>
       <c r="J17">
-        <v>-0.2241327416659222</v>
+        <v>-0.2181239088721136</v>
       </c>
       <c r="K17">
-        <v>-0.2264863909274387</v>
+        <v>-0.2195927357913267</v>
       </c>
       <c r="L17">
-        <v>-0.2180614834244084</v>
+        <v>-0.2117485971030919</v>
       </c>
       <c r="M17">
-        <v>-0.2176670921201999</v>
+        <v>-0.2172166812707708</v>
       </c>
       <c r="N17">
-        <v>-0.2191200477163739</v>
+        <v>-0.2163282824466922</v>
       </c>
       <c r="O17">
-        <v>0.005999827470557505</v>
+        <v>0.002739244245359859</v>
       </c>
       <c r="P17">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1877,16 +1877,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.093023014068604</v>
+        <v>6.071960735321045</v>
       </c>
       <c r="C18">
-        <v>0.04896563707331726</v>
+        <v>0.271667790884869</v>
       </c>
       <c r="D18">
-        <v>0.001903152465820312</v>
+        <v>0.004189300537109375</v>
       </c>
       <c r="E18">
-        <v>5.219626898846719E-05</v>
+        <v>0.0009765907815287641</v>
       </c>
       <c r="F18">
         <v>1E-05</v>
@@ -1898,28 +1898,28 @@
         <v>33</v>
       </c>
       <c r="I18">
-        <v>-0.2067710310681147</v>
+        <v>-0.2051561674520258</v>
       </c>
       <c r="J18">
-        <v>-0.2250586875120383</v>
+        <v>-0.2162301231740078</v>
       </c>
       <c r="K18">
-        <v>-0.2296646629411603</v>
+        <v>-0.2176187901829062</v>
       </c>
       <c r="L18">
-        <v>-0.2225457847871893</v>
+        <v>-0.2208203624922204</v>
       </c>
       <c r="M18">
-        <v>-0.2202685420578979</v>
+        <v>-0.2228874024786683</v>
       </c>
       <c r="N18">
-        <v>-0.2208617416732801</v>
+        <v>-0.2165425691559657</v>
       </c>
       <c r="O18">
-        <v>0.007705086496252749</v>
+        <v>0.006155687511148328</v>
       </c>
       <c r="P18">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1927,16 +1927,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.42745156288147</v>
+        <v>6.571027088165283</v>
       </c>
       <c r="C19">
-        <v>0.1318973476768125</v>
+        <v>0.2713220207711976</v>
       </c>
       <c r="D19">
-        <v>0.001908254623413086</v>
+        <v>0.004786872863769531</v>
       </c>
       <c r="E19">
-        <v>2.646656715339152E-05</v>
+        <v>0.0009763377180532833</v>
       </c>
       <c r="F19">
         <v>1E-05</v>
@@ -1948,28 +1948,28 @@
         <v>34</v>
       </c>
       <c r="I19">
-        <v>-0.2131548105070332</v>
+        <v>-0.2032635722090408</v>
       </c>
       <c r="J19">
-        <v>-0.214874125328385</v>
+        <v>-0.2150981223723057</v>
       </c>
       <c r="K19">
-        <v>-0.2199158834528291</v>
+        <v>-0.2170946664072926</v>
       </c>
       <c r="L19">
-        <v>-0.2200525518851088</v>
+        <v>-0.2200606764871712</v>
       </c>
       <c r="M19">
-        <v>-0.2195789516588427</v>
+        <v>-0.2146663438825575</v>
       </c>
       <c r="N19">
-        <v>-0.2175152645664398</v>
+        <v>-0.2140366762716735</v>
       </c>
       <c r="O19">
-        <v>0.002913718533747079</v>
+        <v>0.005713541853087546</v>
       </c>
       <c r="P19">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1977,16 +1977,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.499065685272217</v>
+        <v>6.648420429229736</v>
       </c>
       <c r="C20">
-        <v>0.1934438119924083</v>
+        <v>0.2029625435287321</v>
       </c>
       <c r="D20">
-        <v>0.001919937133789063</v>
+        <v>0.004587650299072266</v>
       </c>
       <c r="E20">
-        <v>1.790801292137551E-05</v>
+        <v>0.0004883249503562593</v>
       </c>
       <c r="F20">
         <v>1E-05</v>
@@ -1998,28 +1998,28 @@
         <v>35</v>
       </c>
       <c r="I20">
-        <v>-0.2139748758464334</v>
+        <v>-0.2068367635967096</v>
       </c>
       <c r="J20">
-        <v>-0.2138097822829278</v>
+        <v>-0.2121257554676419</v>
       </c>
       <c r="K20">
-        <v>-0.2160778230359402</v>
+        <v>-0.2200558103193073</v>
       </c>
       <c r="L20">
-        <v>-0.2140980341135436</v>
+        <v>-0.2174482523337457</v>
       </c>
       <c r="M20">
-        <v>-0.22191708947354</v>
+        <v>-0.2108763449453403</v>
       </c>
       <c r="N20">
-        <v>-0.215975520950477</v>
+        <v>-0.2134685853325489</v>
       </c>
       <c r="O20">
-        <v>0.003083201708038343</v>
+        <v>0.0047272242230235</v>
       </c>
       <c r="P20">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2027,16 +2027,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.613939094543457</v>
+        <v>6.503008413314819</v>
       </c>
       <c r="C21">
-        <v>0.1448979169212125</v>
+        <v>0.08591205597973253</v>
       </c>
       <c r="D21">
-        <v>0.001928472518920899</v>
+        <v>0.005384969711303711</v>
       </c>
       <c r="E21">
-        <v>1.156130999697086E-05</v>
+        <v>0.001016635288496637</v>
       </c>
       <c r="F21">
         <v>1E-05</v>
@@ -2048,28 +2048,28 @@
         <v>36</v>
       </c>
       <c r="I21">
-        <v>-0.2035706424113252</v>
+        <v>-0.2030681552606644</v>
       </c>
       <c r="J21">
-        <v>-0.2130319372723586</v>
+        <v>-0.2195797379535288</v>
       </c>
       <c r="K21">
-        <v>-0.2185578996317364</v>
+        <v>-0.2134584039243355</v>
       </c>
       <c r="L21">
-        <v>-0.2119411811910196</v>
+        <v>-0.211260226446769</v>
       </c>
       <c r="M21">
-        <v>-0.2170225716605332</v>
+        <v>-0.2099049663368002</v>
       </c>
       <c r="N21">
-        <v>-0.2128248464333946</v>
+        <v>-0.2114542979844196</v>
       </c>
       <c r="O21">
-        <v>0.005233599889479956</v>
+        <v>0.005344243583693334</v>
       </c>
       <c r="P21">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2077,16 +2077,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.675113773345947</v>
+        <v>6.760719537734985</v>
       </c>
       <c r="C22">
-        <v>0.05535018369625404</v>
+        <v>0.07627569325647587</v>
       </c>
       <c r="D22">
-        <v>0.001941680908203125</v>
+        <v>0.005385446548461914</v>
       </c>
       <c r="E22">
-        <v>1.503361012500233E-05</v>
+        <v>0.001015839834470672</v>
       </c>
       <c r="F22">
         <v>1E-05</v>
@@ -2098,28 +2098,28 @@
         <v>37</v>
       </c>
       <c r="I22">
-        <v>-0.2041618292567534</v>
+        <v>-0.2091303266487274</v>
       </c>
       <c r="J22">
-        <v>-0.2142961994267039</v>
+        <v>-0.215427738482443</v>
       </c>
       <c r="K22">
-        <v>-0.2214125553220879</v>
+        <v>-0.2144323248362257</v>
       </c>
       <c r="L22">
-        <v>-0.2121903533806212</v>
+        <v>-0.2132891243445769</v>
       </c>
       <c r="M22">
-        <v>-0.2137004025472251</v>
+        <v>-0.2095880390368393</v>
       </c>
       <c r="N22">
-        <v>-0.2131522679866783</v>
+        <v>-0.2123735106697625</v>
       </c>
       <c r="O22">
-        <v>0.005506262721035964</v>
+        <v>0.002556656665154915</v>
       </c>
       <c r="P22">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2127,16 +2127,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.627349758148193</v>
+        <v>7.533769083023071</v>
       </c>
       <c r="C23">
-        <v>0.1546057559045974</v>
+        <v>0.3965268098021834</v>
       </c>
       <c r="D23">
-        <v>0.001937341690063477</v>
+        <v>0.00439000129699707</v>
       </c>
       <c r="E23">
-        <v>1.521581319822627E-05</v>
+        <v>0.0004874517381537245</v>
       </c>
       <c r="F23">
         <v>1E-05</v>
@@ -2148,28 +2148,28 @@
         <v>38</v>
       </c>
       <c r="I23">
-        <v>-0.2048843194563313</v>
+        <v>-0.204455671845589</v>
       </c>
       <c r="J23">
-        <v>-0.2161227201346431</v>
+        <v>-0.2145442568202059</v>
       </c>
       <c r="K23">
-        <v>-0.2190236614539266</v>
+        <v>-0.2176416364718657</v>
       </c>
       <c r="L23">
-        <v>-0.2091448642148619</v>
+        <v>-0.2116016426289709</v>
       </c>
       <c r="M23">
-        <v>-0.2083009634801063</v>
+        <v>-0.2100675007072886</v>
       </c>
       <c r="N23">
-        <v>-0.2114953057479739</v>
+        <v>-0.211662141694784</v>
       </c>
       <c r="O23">
-        <v>0.005244475974097941</v>
+        <v>0.004439384936872537</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2177,16 +2177,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.175014305114746</v>
+        <v>4.723637008666993</v>
       </c>
       <c r="C24">
-        <v>0.04980937561092854</v>
+        <v>0.1076707866604056</v>
       </c>
       <c r="D24">
-        <v>0.001957225799560547</v>
+        <v>0.005488681793212891</v>
       </c>
       <c r="E24">
-        <v>4.503080065116375E-05</v>
+        <v>0.0004461703244497763</v>
       </c>
       <c r="F24">
         <v>0.0001</v>
@@ -2198,28 +2198,28 @@
         <v>39</v>
       </c>
       <c r="I24">
-        <v>-0.2262392992514617</v>
+        <v>-0.2245624043722786</v>
       </c>
       <c r="J24">
-        <v>-0.2265988079840388</v>
+        <v>-0.2248275424931209</v>
       </c>
       <c r="K24">
-        <v>-0.2399500397073722</v>
+        <v>-0.2323357632440339</v>
       </c>
       <c r="L24">
-        <v>-0.2254667997735639</v>
+        <v>-0.2232543594564084</v>
       </c>
       <c r="M24">
-        <v>-0.230172142415745</v>
+        <v>-0.2258032996960731</v>
       </c>
       <c r="N24">
-        <v>-0.2296854178264363</v>
+        <v>-0.226156673852383</v>
       </c>
       <c r="O24">
-        <v>0.005381430943762403</v>
+        <v>0.003194925138490996</v>
       </c>
       <c r="P24">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2227,16 +2227,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.062554979324341</v>
+        <v>5.209667587280274</v>
       </c>
       <c r="C25">
-        <v>0.04755361867367278</v>
+        <v>0.2538865338982884</v>
       </c>
       <c r="D25">
-        <v>0.001931667327880859</v>
+        <v>0.004587936401367188</v>
       </c>
       <c r="E25">
-        <v>3.530624167031137E-05</v>
+        <v>0.0004886561822491157</v>
       </c>
       <c r="F25">
         <v>0.0001</v>
@@ -2248,28 +2248,28 @@
         <v>40</v>
       </c>
       <c r="I25">
-        <v>-0.2114549652749947</v>
+        <v>-0.2160197089836456</v>
       </c>
       <c r="J25">
-        <v>-0.2243294901492901</v>
+        <v>-0.2231283643443344</v>
       </c>
       <c r="K25">
-        <v>-0.2311368975241438</v>
+        <v>-0.2253070363351027</v>
       </c>
       <c r="L25">
-        <v>-0.2208037424561576</v>
+        <v>-0.2228244690144339</v>
       </c>
       <c r="M25">
-        <v>-0.21956926088169</v>
+        <v>-0.2195665137890281</v>
       </c>
       <c r="N25">
-        <v>-0.2214588712572552</v>
+        <v>-0.2213692184933089</v>
       </c>
       <c r="O25">
-        <v>0.006418451546366497</v>
+        <v>0.003243015689273766</v>
       </c>
       <c r="P25">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2277,16 +2277,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.189125919342041</v>
+        <v>5.548769998550415</v>
       </c>
       <c r="C26">
-        <v>0.0337958970584307</v>
+        <v>0.222568360123947</v>
       </c>
       <c r="D26">
-        <v>0.001964044570922851</v>
+        <v>0.004578685760498047</v>
       </c>
       <c r="E26">
-        <v>4.855068744002973E-05</v>
+        <v>0.0007958756519956666</v>
       </c>
       <c r="F26">
         <v>0.0001</v>
@@ -2298,28 +2298,28 @@
         <v>41</v>
       </c>
       <c r="I26">
-        <v>-0.2095394397030551</v>
+        <v>-0.2141425320193844</v>
       </c>
       <c r="J26">
-        <v>-0.2250899132438607</v>
+        <v>-0.2139743420979692</v>
       </c>
       <c r="K26">
-        <v>-0.2299379508014998</v>
+        <v>-0.2301016097335575</v>
       </c>
       <c r="L26">
-        <v>-0.2155263496003537</v>
+        <v>-0.2218020965218766</v>
       </c>
       <c r="M26">
-        <v>-0.2234829959543191</v>
+        <v>-0.2276866309208866</v>
       </c>
       <c r="N26">
-        <v>-0.2207153298606176</v>
+        <v>-0.2215414422587349</v>
       </c>
       <c r="O26">
-        <v>0.007261951932609857</v>
+        <v>0.006680009417783296</v>
       </c>
       <c r="P26">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2327,16 +2327,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.29041576385498</v>
+        <v>5.657669639587402</v>
       </c>
       <c r="C27">
-        <v>0.05195949048921108</v>
+        <v>0.1921701838316725</v>
       </c>
       <c r="D27">
-        <v>0.001932144165039062</v>
+        <v>0.004387998580932617</v>
       </c>
       <c r="E27">
-        <v>2.157971326675319E-05</v>
+        <v>0.001017065564235687</v>
       </c>
       <c r="F27">
         <v>0.0001</v>
@@ -2348,28 +2348,28 @@
         <v>42</v>
       </c>
       <c r="I27">
-        <v>-0.206971492431223</v>
+        <v>-0.2060088712194283</v>
       </c>
       <c r="J27">
-        <v>-0.2154134183650383</v>
+        <v>-0.2148072156221268</v>
       </c>
       <c r="K27">
-        <v>-0.2232871751266572</v>
+        <v>-0.2194913769442768</v>
       </c>
       <c r="L27">
-        <v>-0.2182919675784866</v>
+        <v>-0.2206144746335305</v>
       </c>
       <c r="M27">
-        <v>-0.2261370521154125</v>
+        <v>-0.2198784475621745</v>
       </c>
       <c r="N27">
-        <v>-0.2180202211233636</v>
+        <v>-0.2161600771963074</v>
       </c>
       <c r="O27">
-        <v>0.00667184265844917</v>
+        <v>0.005470698491805951</v>
       </c>
       <c r="P27">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2377,16 +2377,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.277470827102661</v>
+        <v>5.780741834640503</v>
       </c>
       <c r="C28">
-        <v>0.08629398624050187</v>
+        <v>0.07910741030629596</v>
       </c>
       <c r="D28">
-        <v>0.001942873001098633</v>
+        <v>0.004787111282348632</v>
       </c>
       <c r="E28">
-        <v>3.053433732955364E-05</v>
+        <v>0.0009782371374396546</v>
       </c>
       <c r="F28">
         <v>0.0001</v>
@@ -2398,28 +2398,28 @@
         <v>43</v>
       </c>
       <c r="I28">
-        <v>-0.2131282257547975</v>
+        <v>-0.2107632608674436</v>
       </c>
       <c r="J28">
-        <v>-0.2240674122706034</v>
+        <v>-0.2209497506098858</v>
       </c>
       <c r="K28">
-        <v>-0.2205029418322293</v>
+        <v>-0.2190967240548239</v>
       </c>
       <c r="L28">
-        <v>-0.2245987463247808</v>
+        <v>-0.2119771743657376</v>
       </c>
       <c r="M28">
-        <v>-0.2223803403249224</v>
+        <v>-0.2153096776045849</v>
       </c>
       <c r="N28">
-        <v>-0.2209355333014667</v>
+        <v>-0.2156193175004952</v>
       </c>
       <c r="O28">
-        <v>0.004158279677319938</v>
+        <v>0.003935689087831541</v>
       </c>
       <c r="P28">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2427,16 +2427,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.224294853210449</v>
+        <v>5.901018810272217</v>
       </c>
       <c r="C29">
-        <v>0.04347195017106614</v>
+        <v>0.08497501441398699</v>
       </c>
       <c r="D29">
-        <v>0.001965093612670899</v>
+        <v>0.004986953735351562</v>
       </c>
       <c r="E29">
-        <v>3.066118545383732E-05</v>
+        <v>0.0008925507855276428</v>
       </c>
       <c r="F29">
         <v>0.0001</v>
@@ -2448,28 +2448,28 @@
         <v>44</v>
       </c>
       <c r="I29">
-        <v>-0.2070162221259477</v>
+        <v>-0.2046438724949937</v>
       </c>
       <c r="J29">
-        <v>-0.2242378447338012</v>
+        <v>-0.215501194701953</v>
       </c>
       <c r="K29">
-        <v>-0.2316018087467893</v>
+        <v>-0.2172609149982598</v>
       </c>
       <c r="L29">
-        <v>-0.225091998423286</v>
+        <v>-0.2163694662251569</v>
       </c>
       <c r="M29">
-        <v>-0.2136572023045807</v>
+        <v>-0.2220152710480933</v>
       </c>
       <c r="N29">
-        <v>-0.220321015266881</v>
+        <v>-0.2151581438936913</v>
       </c>
       <c r="O29">
-        <v>0.008795272123220796</v>
+        <v>0.005719732997668193</v>
       </c>
       <c r="P29">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2477,16 +2477,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.452414274215698</v>
+        <v>6.331668090820313</v>
       </c>
       <c r="C30">
-        <v>0.1189035590045553</v>
+        <v>0.2378432742550684</v>
       </c>
       <c r="D30">
-        <v>0.001930999755859375</v>
+        <v>0.003988122940063477</v>
       </c>
       <c r="E30">
-        <v>2.287198526668076E-05</v>
+        <v>0.0006309099923580869</v>
       </c>
       <c r="F30">
         <v>0.0001</v>
@@ -2498,28 +2498,28 @@
         <v>45</v>
       </c>
       <c r="I30">
-        <v>-0.2142018333614018</v>
+        <v>-0.2042946481648472</v>
       </c>
       <c r="J30">
-        <v>-0.2179833459527824</v>
+        <v>-0.2178568366026784</v>
       </c>
       <c r="K30">
-        <v>-0.2164146862450909</v>
+        <v>-0.2233489417153314</v>
       </c>
       <c r="L30">
-        <v>-0.2171688919996357</v>
+        <v>-0.2148896318056937</v>
       </c>
       <c r="M30">
-        <v>-0.2146073962317138</v>
+        <v>-0.2170828560230589</v>
       </c>
       <c r="N30">
-        <v>-0.2160752307581249</v>
+        <v>-0.2154945828623219</v>
       </c>
       <c r="O30">
-        <v>0.001457146838027686</v>
+        <v>0.00625457129414011</v>
       </c>
       <c r="P30">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2527,16 +2527,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.456361436843872</v>
+        <v>6.389312934875488</v>
       </c>
       <c r="C31">
-        <v>0.1078912818469216</v>
+        <v>0.1634798246151102</v>
       </c>
       <c r="D31">
-        <v>0.00198211669921875</v>
+        <v>0.004188394546508789</v>
       </c>
       <c r="E31">
-        <v>6.520224642618042E-05</v>
+        <v>0.0009775056908208149</v>
       </c>
       <c r="F31">
         <v>0.0001</v>
@@ -2548,28 +2548,28 @@
         <v>46</v>
       </c>
       <c r="I31">
-        <v>-0.2193936239182029</v>
+        <v>-0.2089477442441417</v>
       </c>
       <c r="J31">
-        <v>-0.2181097268599082</v>
+        <v>-0.2150657034103113</v>
       </c>
       <c r="K31">
-        <v>-0.2199336692191546</v>
+        <v>-0.2209979485702994</v>
       </c>
       <c r="L31">
-        <v>-0.2129139217855778</v>
+        <v>-0.2164784409433453</v>
       </c>
       <c r="M31">
-        <v>-0.2137336367313324</v>
+        <v>-0.2111096461679338</v>
       </c>
       <c r="N31">
-        <v>-0.2168169157028352</v>
+        <v>-0.2145198966672063</v>
       </c>
       <c r="O31">
-        <v>0.002924548140508031</v>
+        <v>0.004213731083855174</v>
       </c>
       <c r="P31">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2577,16 +2577,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.637433815002441</v>
+        <v>6.5351167678833</v>
       </c>
       <c r="C32">
-        <v>0.1173630371786892</v>
+        <v>0.1687479356736313</v>
       </c>
       <c r="D32">
-        <v>0.001966476440429688</v>
+        <v>0.004393434524536133</v>
       </c>
       <c r="E32">
-        <v>6.010286011388527E-05</v>
+        <v>0.0004844563353579971</v>
       </c>
       <c r="F32">
         <v>0.0001</v>
@@ -2598,28 +2598,28 @@
         <v>47</v>
       </c>
       <c r="I32">
-        <v>-0.2030958218361552</v>
+        <v>-0.2080152954470432</v>
       </c>
       <c r="J32">
-        <v>-0.2133863501448582</v>
+        <v>-0.2180846222673441</v>
       </c>
       <c r="K32">
-        <v>-0.2191159371534828</v>
+        <v>-0.2177325402594145</v>
       </c>
       <c r="L32">
-        <v>-0.2112038354364542</v>
+        <v>-0.2127233139540791</v>
       </c>
       <c r="M32">
-        <v>-0.216900559182321</v>
+        <v>-0.2126894873784981</v>
       </c>
       <c r="N32">
-        <v>-0.2127405007506543</v>
+        <v>-0.2138490518612758</v>
       </c>
       <c r="O32">
-        <v>0.00554527850649605</v>
+        <v>0.003732723625699041</v>
       </c>
       <c r="P32">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2627,16 +2627,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.709148550033569</v>
+        <v>6.649209260940552</v>
       </c>
       <c r="C33">
-        <v>0.06245270862845082</v>
+        <v>0.2352852704773934</v>
       </c>
       <c r="D33">
-        <v>0.001936435699462891</v>
+        <v>0.004594278335571289</v>
       </c>
       <c r="E33">
-        <v>1.390289040071494E-05</v>
+        <v>0.0004937687431158331</v>
       </c>
       <c r="F33">
         <v>0.0001</v>
@@ -2648,28 +2648,28 @@
         <v>48</v>
       </c>
       <c r="I33">
-        <v>-0.203408004250598</v>
+        <v>-0.2074006150183389</v>
       </c>
       <c r="J33">
-        <v>-0.2138390876027252</v>
+        <v>-0.2107155910193853</v>
       </c>
       <c r="K33">
-        <v>-0.2162098332272266</v>
+        <v>-0.2152156203181202</v>
       </c>
       <c r="L33">
-        <v>-0.2122645468417669</v>
+        <v>-0.2083620672209918</v>
       </c>
       <c r="M33">
-        <v>-0.215559122174003</v>
+        <v>-0.2115417783770154</v>
       </c>
       <c r="N33">
-        <v>-0.2122561188192639</v>
+        <v>-0.2106471343907703</v>
       </c>
       <c r="O33">
-        <v>0.004633285689494284</v>
+        <v>0.002736331772519262</v>
       </c>
       <c r="P33">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2677,16 +2677,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.585513639450073</v>
+        <v>6.67275505065918</v>
       </c>
       <c r="C34">
-        <v>0.1698784279301019</v>
+        <v>0.199675435132537</v>
       </c>
       <c r="D34">
-        <v>0.001949167251586914</v>
+        <v>0.004787540435791016</v>
       </c>
       <c r="E34">
-        <v>3.677048362581273E-05</v>
+        <v>0.000746825419987066</v>
       </c>
       <c r="F34">
         <v>0.0001</v>
@@ -2698,28 +2698,28 @@
         <v>49</v>
       </c>
       <c r="I34">
-        <v>-0.2071930366249719</v>
+        <v>-0.2045104794183573</v>
       </c>
       <c r="J34">
-        <v>-0.212526702626901</v>
+        <v>-0.2137245812132908</v>
       </c>
       <c r="K34">
-        <v>-0.217820322939274</v>
+        <v>-0.2185987149684908</v>
       </c>
       <c r="L34">
-        <v>-0.2124403823452784</v>
+        <v>-0.2131203634437045</v>
       </c>
       <c r="M34">
-        <v>-0.2087767039688312</v>
+        <v>-0.2129108196963404</v>
       </c>
       <c r="N34">
-        <v>-0.2117514297010513</v>
+        <v>-0.2125729917480368</v>
       </c>
       <c r="O34">
-        <v>0.003675190052513463</v>
+        <v>0.004539897513999845</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2727,16 +2727,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.207643318176269</v>
+        <v>4.146909761428833</v>
       </c>
       <c r="C35">
-        <v>0.07984262431324116</v>
+        <v>0.1097848517704858</v>
       </c>
       <c r="D35">
-        <v>0.00195155143737793</v>
+        <v>0.004188871383666993</v>
       </c>
       <c r="E35">
-        <v>2.508888574947134E-05</v>
+        <v>0.0003985885941162957</v>
       </c>
       <c r="F35">
         <v>0.001</v>
@@ -2748,28 +2748,28 @@
         <v>50</v>
       </c>
       <c r="I35">
-        <v>-0.2212947618994331</v>
+        <v>-0.2179028325365737</v>
       </c>
       <c r="J35">
-        <v>-0.2272909003923898</v>
+        <v>-0.2193177860625465</v>
       </c>
       <c r="K35">
-        <v>-0.2323844631599818</v>
+        <v>-0.2302349085612918</v>
       </c>
       <c r="L35">
-        <v>-0.2168807129058037</v>
+        <v>-0.2265793586177465</v>
       </c>
       <c r="M35">
-        <v>-0.2324569651065104</v>
+        <v>-0.2254570279000941</v>
       </c>
       <c r="N35">
-        <v>-0.2260615606928238</v>
+        <v>-0.2238983827356505</v>
       </c>
       <c r="O35">
-        <v>0.006154703992001993</v>
+        <v>0.004619460012584671</v>
       </c>
       <c r="P35">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2777,16 +2777,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.027993392944336</v>
+        <v>5.015979051589966</v>
       </c>
       <c r="C36">
-        <v>0.03145579493043753</v>
+        <v>0.04750710692965877</v>
       </c>
       <c r="D36">
-        <v>0.001970148086547851</v>
+        <v>0.003995084762573242</v>
       </c>
       <c r="E36">
-        <v>5.808526427145636E-05</v>
+        <v>0.0006217420919143199</v>
       </c>
       <c r="F36">
         <v>0.001</v>
@@ -2798,28 +2798,28 @@
         <v>51</v>
       </c>
       <c r="I36">
-        <v>-0.2143564808379342</v>
+        <v>-0.218432418755112</v>
       </c>
       <c r="J36">
-        <v>-0.2196773606242098</v>
+        <v>-0.2194270160642162</v>
       </c>
       <c r="K36">
-        <v>-0.2259371574530582</v>
+        <v>-0.227565467002799</v>
       </c>
       <c r="L36">
-        <v>-0.2245044320490726</v>
+        <v>-0.2221898442166201</v>
       </c>
       <c r="M36">
-        <v>-0.2237405862092641</v>
+        <v>-0.2197642565229028</v>
       </c>
       <c r="N36">
-        <v>-0.2216432034347078</v>
+        <v>-0.22147580051233</v>
       </c>
       <c r="O36">
-        <v>0.004194867076709114</v>
+        <v>0.003285817080712869</v>
       </c>
       <c r="P36">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2827,16 +2827,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.22719407081604</v>
+        <v>5.431274366378784</v>
       </c>
       <c r="C37">
-        <v>0.06048675999003328</v>
+        <v>0.1241092203039961</v>
       </c>
       <c r="D37">
-        <v>0.001929712295532227</v>
+        <v>0.005385923385620117</v>
       </c>
       <c r="E37">
-        <v>9.249165997470346E-06</v>
+        <v>0.0004885780979994931</v>
       </c>
       <c r="F37">
         <v>0.001</v>
@@ -2848,25 +2848,25 @@
         <v>52</v>
       </c>
       <c r="I37">
-        <v>-0.2104789771685216</v>
+        <v>-0.2064392769358811</v>
       </c>
       <c r="J37">
-        <v>-0.2235081309611631</v>
+        <v>-0.2135230450227882</v>
       </c>
       <c r="K37">
-        <v>-0.2215285692191116</v>
+        <v>-0.2316641207496168</v>
       </c>
       <c r="L37">
-        <v>-0.2191476548193683</v>
+        <v>-0.2157404092312184</v>
       </c>
       <c r="M37">
-        <v>-0.2196618831137502</v>
+        <v>-0.2233475218635489</v>
       </c>
       <c r="N37">
-        <v>-0.2188650430563829</v>
+        <v>-0.2181428747606107</v>
       </c>
       <c r="O37">
-        <v>0.004465278523725281</v>
+        <v>0.008648714517553915</v>
       </c>
       <c r="P37">
         <v>69</v>
@@ -2877,16 +2877,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.298280954360962</v>
+        <v>5.536201333999633</v>
       </c>
       <c r="C38">
-        <v>0.05439463144408162</v>
+        <v>0.1402801940909694</v>
       </c>
       <c r="D38">
-        <v>0.001975440979003906</v>
+        <v>0.003783559799194336</v>
       </c>
       <c r="E38">
-        <v>5.810228976952011E-05</v>
+        <v>0.0007444426031613606</v>
       </c>
       <c r="F38">
         <v>0.001</v>
@@ -2898,28 +2898,28 @@
         <v>53</v>
       </c>
       <c r="I38">
-        <v>-0.2082400710357372</v>
+        <v>-0.2072000168895365</v>
       </c>
       <c r="J38">
-        <v>-0.216429458809499</v>
+        <v>-0.2204389175196543</v>
       </c>
       <c r="K38">
-        <v>-0.2218175769269676</v>
+        <v>-0.225366040896692</v>
       </c>
       <c r="L38">
-        <v>-0.2259824823996732</v>
+        <v>-0.2234706933604247</v>
       </c>
       <c r="M38">
-        <v>-0.228065061691334</v>
+        <v>-0.2181887262246391</v>
       </c>
       <c r="N38">
-        <v>-0.2201069301726422</v>
+        <v>-0.2189328789781893</v>
       </c>
       <c r="O38">
-        <v>0.007143198512729883</v>
+        <v>0.006363321457189401</v>
       </c>
       <c r="P38">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2927,16 +2927,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.26008358001709</v>
+        <v>5.938107872009278</v>
       </c>
       <c r="C39">
-        <v>0.04210418593519146</v>
+        <v>0.2145309497867998</v>
       </c>
       <c r="D39">
-        <v>0.001963138580322266</v>
+        <v>0.004593658447265625</v>
       </c>
       <c r="E39">
-        <v>2.455456729760918E-05</v>
+        <v>0.0008010731196433748</v>
       </c>
       <c r="F39">
         <v>0.001</v>
@@ -2948,25 +2948,25 @@
         <v>54</v>
       </c>
       <c r="I39">
-        <v>-0.210182915325085</v>
+        <v>-0.2144199742388982</v>
       </c>
       <c r="J39">
-        <v>-0.2224298337646583</v>
+        <v>-0.2188786479744341</v>
       </c>
       <c r="K39">
-        <v>-0.2247812719317254</v>
+        <v>-0.222313060940655</v>
       </c>
       <c r="L39">
-        <v>-0.2183018883612689</v>
+        <v>-0.2132602835064837</v>
       </c>
       <c r="M39">
-        <v>-0.2161565488276109</v>
+        <v>-0.2158227399445715</v>
       </c>
       <c r="N39">
-        <v>-0.2183704916420697</v>
+        <v>-0.2169389413210085</v>
       </c>
       <c r="O39">
-        <v>0.005089577930098703</v>
+        <v>0.003279245266139541</v>
       </c>
       <c r="P39">
         <v>64</v>
@@ -2977,16 +2977,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.21035566329956</v>
+        <v>5.916578435897828</v>
       </c>
       <c r="C40">
-        <v>0.04447579346941836</v>
+        <v>0.1535559258948351</v>
       </c>
       <c r="D40">
-        <v>0.001938772201538086</v>
+        <v>0.004187583923339844</v>
       </c>
       <c r="E40">
-        <v>4.371413587702007E-05</v>
+        <v>0.0003995945459020241</v>
       </c>
       <c r="F40">
         <v>0.001</v>
@@ -2998,28 +2998,28 @@
         <v>55</v>
       </c>
       <c r="I40">
-        <v>-0.2065452077062634</v>
+        <v>-0.2044647938398771</v>
       </c>
       <c r="J40">
-        <v>-0.2174450644432391</v>
+        <v>-0.2166722007175855</v>
       </c>
       <c r="K40">
-        <v>-0.2218970196005925</v>
+        <v>-0.21715108042206</v>
       </c>
       <c r="L40">
-        <v>-0.2165954674680688</v>
+        <v>-0.2179969205713344</v>
       </c>
       <c r="M40">
-        <v>-0.2214947760849794</v>
+        <v>-0.2237404903981043</v>
       </c>
       <c r="N40">
-        <v>-0.2167955070606287</v>
+        <v>-0.2160050971897922</v>
       </c>
       <c r="O40">
-        <v>0.00554326865747324</v>
+        <v>0.006304610607546705</v>
       </c>
       <c r="P40">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3027,16 +3027,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.464915227890015</v>
+        <v>6.423023080825805</v>
       </c>
       <c r="C41">
-        <v>0.1269938616325645</v>
+        <v>0.1595964162376277</v>
       </c>
       <c r="D41">
-        <v>0.001955461502075195</v>
+        <v>0.004786539077758789</v>
       </c>
       <c r="E41">
-        <v>3.77209236516774E-05</v>
+        <v>0.0007462383519175024</v>
       </c>
       <c r="F41">
         <v>0.001</v>
@@ -3048,28 +3048,28 @@
         <v>56</v>
       </c>
       <c r="I41">
-        <v>-0.2111958239468676</v>
+        <v>-0.207519843850003</v>
       </c>
       <c r="J41">
-        <v>-0.2189297944219241</v>
+        <v>-0.2153252959515098</v>
       </c>
       <c r="K41">
-        <v>-0.2185350212887069</v>
+        <v>-0.2235678702598571</v>
       </c>
       <c r="L41">
-        <v>-0.2183933291409032</v>
+        <v>-0.2228724103673341</v>
       </c>
       <c r="M41">
-        <v>-0.2206526529232778</v>
+        <v>-0.2185263035393909</v>
       </c>
       <c r="N41">
-        <v>-0.2175413243443359</v>
+        <v>-0.217562344793619</v>
       </c>
       <c r="O41">
-        <v>0.003273742071923052</v>
+        <v>0.005848906935673518</v>
       </c>
       <c r="P41">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3077,16 +3077,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.509307956695557</v>
+        <v>6.636451959609985</v>
       </c>
       <c r="C42">
-        <v>0.2111030642833404</v>
+        <v>0.2317018406714987</v>
       </c>
       <c r="D42">
-        <v>0.001937580108642578</v>
+        <v>0.004189777374267578</v>
       </c>
       <c r="E42">
-        <v>2.760775964109142E-05</v>
+        <v>0.0003987324577099195</v>
       </c>
       <c r="F42">
         <v>0.001</v>
@@ -3098,28 +3098,28 @@
         <v>57</v>
       </c>
       <c r="I42">
-        <v>-0.2075472553625619</v>
+        <v>-0.2054602147986087</v>
       </c>
       <c r="J42">
-        <v>-0.2168835925051744</v>
+        <v>-0.2166832833050309</v>
       </c>
       <c r="K42">
-        <v>-0.21617546117163</v>
+        <v>-0.2173482105827473</v>
       </c>
       <c r="L42">
-        <v>-0.2132273700616688</v>
+        <v>-0.2129673647823299</v>
       </c>
       <c r="M42">
-        <v>-0.2187582892927188</v>
+        <v>-0.2134513723238314</v>
       </c>
       <c r="N42">
-        <v>-0.2145183936787508</v>
+        <v>-0.2131820891585096</v>
       </c>
       <c r="O42">
-        <v>0.00391357290426835</v>
+        <v>0.004227549923633628</v>
       </c>
       <c r="P42">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3127,16 +3127,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.708843040466308</v>
+        <v>6.745958518981934</v>
       </c>
       <c r="C43">
-        <v>0.1414338938251251</v>
+        <v>0.1681333477127454</v>
       </c>
       <c r="D43">
-        <v>0.002010822296142578</v>
+        <v>0.005585002899169922</v>
       </c>
       <c r="E43">
-        <v>7.55622165910823E-05</v>
+        <v>0.0007977725981326237</v>
       </c>
       <c r="F43">
         <v>0.001</v>
@@ -3148,28 +3148,28 @@
         <v>58</v>
       </c>
       <c r="I43">
-        <v>-0.2045216214856335</v>
+        <v>-0.2058201194267053</v>
       </c>
       <c r="J43">
-        <v>-0.2136867228144605</v>
+        <v>-0.2175448846298741</v>
       </c>
       <c r="K43">
-        <v>-0.2189329502501403</v>
+        <v>-0.2226659856426753</v>
       </c>
       <c r="L43">
-        <v>-0.2149002061709045</v>
+        <v>-0.2155573389425017</v>
       </c>
       <c r="M43">
-        <v>-0.2128328121285764</v>
+        <v>-0.2176559624394689</v>
       </c>
       <c r="N43">
-        <v>-0.2129748625699431</v>
+        <v>-0.2158488582162451</v>
       </c>
       <c r="O43">
-        <v>0.004715717653798965</v>
+        <v>0.005536712793947173</v>
       </c>
       <c r="P43">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3177,16 +3177,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.803839111328125</v>
+        <v>6.93365707397461</v>
       </c>
       <c r="C44">
-        <v>0.1470915668047729</v>
+        <v>0.3824286037652881</v>
       </c>
       <c r="D44">
-        <v>0.00220341682434082</v>
+        <v>0.003989362716674804</v>
       </c>
       <c r="E44">
-        <v>0.0005181265122849282</v>
+        <v>0.000631354250918632</v>
       </c>
       <c r="F44">
         <v>0.001</v>
@@ -3198,28 +3198,28 @@
         <v>59</v>
       </c>
       <c r="I44">
-        <v>-0.2061507483419748</v>
+        <v>-0.2053741133887548</v>
       </c>
       <c r="J44">
-        <v>-0.2113665588869043</v>
+        <v>-0.2131571767800123</v>
       </c>
       <c r="K44">
-        <v>-0.2192813491892466</v>
+        <v>-0.2136637564294301</v>
       </c>
       <c r="L44">
-        <v>-0.2114171574594981</v>
+        <v>-0.212491981133784</v>
       </c>
       <c r="M44">
-        <v>-0.2155729130405107</v>
+        <v>-0.2095242224992855</v>
       </c>
       <c r="N44">
-        <v>-0.212757745383627</v>
+        <v>-0.2108422500462533</v>
       </c>
       <c r="O44">
-        <v>0.004424196227755806</v>
+        <v>0.003088012688891973</v>
       </c>
       <c r="P44">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3227,16 +3227,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.652536153793335</v>
+        <v>6.650813150405884</v>
       </c>
       <c r="C45">
-        <v>0.1288939191998454</v>
+        <v>0.1528421701796684</v>
       </c>
       <c r="D45">
-        <v>0.002047157287597656</v>
+        <v>0.004388284683227539</v>
       </c>
       <c r="E45">
-        <v>0.0001976098906561288</v>
+        <v>0.001017279920856947</v>
       </c>
       <c r="F45">
         <v>0.001</v>
@@ -3248,28 +3248,28 @@
         <v>60</v>
       </c>
       <c r="I45">
-        <v>-0.2054266008298203</v>
+        <v>-0.206652829225742</v>
       </c>
       <c r="J45">
-        <v>-0.2115960333362645</v>
+        <v>-0.2119677890998541</v>
       </c>
       <c r="K45">
-        <v>-0.2204303926667784</v>
+        <v>-0.2171032319199158</v>
       </c>
       <c r="L45">
-        <v>-0.2111515092972873</v>
+        <v>-0.2113762571773378</v>
       </c>
       <c r="M45">
-        <v>-0.2087867256225065</v>
+        <v>-0.2087057985499834</v>
       </c>
       <c r="N45">
-        <v>-0.2114782523505314</v>
+        <v>-0.2111611811945666</v>
       </c>
       <c r="O45">
-        <v>0.004982534533367872</v>
+        <v>0.003531543068404649</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3277,16 +3277,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.2034658908844</v>
+        <v>4.154490327835083</v>
       </c>
       <c r="C46">
-        <v>0.06931857031682392</v>
+        <v>0.1240519298872622</v>
       </c>
       <c r="D46">
-        <v>0.001956367492675781</v>
+        <v>0.004786777496337891</v>
       </c>
       <c r="E46">
-        <v>1.416182276973756E-05</v>
+        <v>0.0007461745464549662</v>
       </c>
       <c r="F46">
         <v>0.01</v>
@@ -3298,28 +3298,28 @@
         <v>61</v>
       </c>
       <c r="I46">
-        <v>-0.2170946627891745</v>
+        <v>-0.2145058349415609</v>
       </c>
       <c r="J46">
-        <v>-0.225747171101954</v>
+        <v>-0.2247648000347452</v>
       </c>
       <c r="K46">
-        <v>-0.2307698017131599</v>
+        <v>-0.228984540396683</v>
       </c>
       <c r="L46">
-        <v>-0.2246560027167402</v>
+        <v>-0.2251890148092486</v>
       </c>
       <c r="M46">
-        <v>-0.2242720445167598</v>
+        <v>-0.2264972391819645</v>
       </c>
       <c r="N46">
-        <v>-0.2245079365675577</v>
+        <v>-0.2239882858728404</v>
       </c>
       <c r="O46">
-        <v>0.004376776304322075</v>
+        <v>0.004964252327609334</v>
       </c>
       <c r="P46">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3327,16 +3327,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.049065685272217</v>
+        <v>5.016983032226562</v>
       </c>
       <c r="C47">
-        <v>0.03702059580391816</v>
+        <v>0.09781374390830508</v>
       </c>
       <c r="D47">
-        <v>0.001965856552124023</v>
+        <v>0.004987192153930664</v>
       </c>
       <c r="E47">
-        <v>3.281512809592748E-05</v>
+        <v>0.0006287993116736669</v>
       </c>
       <c r="F47">
         <v>0.01</v>
@@ -3348,28 +3348,28 @@
         <v>62</v>
       </c>
       <c r="I47">
-        <v>-0.2157756596458688</v>
+        <v>-0.2224557057435116</v>
       </c>
       <c r="J47">
-        <v>-0.2225228386748057</v>
+        <v>-0.2170189722802167</v>
       </c>
       <c r="K47">
-        <v>-0.223922399559568</v>
+        <v>-0.228678223951123</v>
       </c>
       <c r="L47">
-        <v>-0.2253014980226398</v>
+        <v>-0.2189388501624773</v>
       </c>
       <c r="M47">
-        <v>-0.222072183295453</v>
+        <v>-0.2174577745373682</v>
       </c>
       <c r="N47">
-        <v>-0.2219189158396671</v>
+        <v>-0.2209099053349393</v>
       </c>
       <c r="O47">
-        <v>0.003273640774639713</v>
+        <v>0.004328461588103764</v>
       </c>
       <c r="P47">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3377,16 +3377,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.21981987953186</v>
+        <v>5.542177963256836</v>
       </c>
       <c r="C48">
-        <v>0.08049193204013677</v>
+        <v>0.08954655193710505</v>
       </c>
       <c r="D48">
-        <v>0.001963233947753906</v>
+        <v>0.004787254333496094</v>
       </c>
       <c r="E48">
-        <v>4.658691714699809E-05</v>
+        <v>0.000745919635814069</v>
       </c>
       <c r="F48">
         <v>0.01</v>
@@ -3398,28 +3398,28 @@
         <v>63</v>
       </c>
       <c r="I48">
-        <v>-0.2076317549863351</v>
+        <v>-0.2095683677677964</v>
       </c>
       <c r="J48">
-        <v>-0.2176656976956391</v>
+        <v>-0.2184383759123671</v>
       </c>
       <c r="K48">
-        <v>-0.2250723178199221</v>
+        <v>-0.2339140752408717</v>
       </c>
       <c r="L48">
-        <v>-0.2180597705101023</v>
+        <v>-0.2228154788190936</v>
       </c>
       <c r="M48">
-        <v>-0.2191075410031624</v>
+        <v>-0.2210036624212283</v>
       </c>
       <c r="N48">
-        <v>-0.2175074164030322</v>
+        <v>-0.2211479920322714</v>
       </c>
       <c r="O48">
-        <v>0.005615104070765413</v>
+        <v>0.007838417459327124</v>
       </c>
       <c r="P48">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3427,16 +3427,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.285655689239502</v>
+        <v>5.585262489318848</v>
       </c>
       <c r="C49">
-        <v>0.0437265269409559</v>
+        <v>0.08451919240046914</v>
       </c>
       <c r="D49">
-        <v>0.002040004730224609</v>
+        <v>0.003989982604980469</v>
       </c>
       <c r="E49">
-        <v>0.0001451576897140223</v>
+        <v>8.17605409597504E-07</v>
       </c>
       <c r="F49">
         <v>0.01</v>
@@ -3448,28 +3448,28 @@
         <v>64</v>
       </c>
       <c r="I49">
-        <v>-0.2072371180923322</v>
+        <v>-0.2052543108389875</v>
       </c>
       <c r="J49">
-        <v>-0.2214909340532958</v>
+        <v>-0.2236301661147019</v>
       </c>
       <c r="K49">
-        <v>-0.2196202289950837</v>
+        <v>-0.2251524983724806</v>
       </c>
       <c r="L49">
-        <v>-0.2226622900157551</v>
+        <v>-0.2262091921923501</v>
       </c>
       <c r="M49">
-        <v>-0.2247792486193546</v>
+        <v>-0.2226556043836952</v>
       </c>
       <c r="N49">
-        <v>-0.2191579639551643</v>
+        <v>-0.2205803543804431</v>
       </c>
       <c r="O49">
-        <v>0.006190995831788404</v>
+        <v>0.00775994768824753</v>
       </c>
       <c r="P49">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3477,16 +3477,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.318131017684936</v>
+        <v>5.793306016921997</v>
       </c>
       <c r="C50">
-        <v>0.03984191355414018</v>
+        <v>0.1689675696585481</v>
       </c>
       <c r="D50">
-        <v>0.001955604553222656</v>
+        <v>0.004189348220825196</v>
       </c>
       <c r="E50">
-        <v>3.39997265926348E-05</v>
+        <v>0.0003995419829027276</v>
       </c>
       <c r="F50">
         <v>0.01</v>
@@ -3498,28 +3498,28 @@
         <v>65</v>
       </c>
       <c r="I50">
-        <v>-0.2118724448746347</v>
+        <v>-0.2162975796069683</v>
       </c>
       <c r="J50">
-        <v>-0.2188306298996251</v>
+        <v>-0.2161924536236972</v>
       </c>
       <c r="K50">
-        <v>-0.2215364285821204</v>
+        <v>-0.2191072607630795</v>
       </c>
       <c r="L50">
-        <v>-0.2138672241135621</v>
+        <v>-0.2199812330647559</v>
       </c>
       <c r="M50">
-        <v>-0.2172112830340251</v>
+        <v>-0.2149630767160463</v>
       </c>
       <c r="N50">
-        <v>-0.2166636021007935</v>
+        <v>-0.2173083207549094</v>
       </c>
       <c r="O50">
-        <v>0.003450081715435192</v>
+        <v>0.00190512845202669</v>
       </c>
       <c r="P50">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3527,16 +3527,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.224725580215454</v>
+        <v>6.020100545883179</v>
       </c>
       <c r="C51">
-        <v>0.02248897957828272</v>
+        <v>0.2454085872387829</v>
       </c>
       <c r="D51">
-        <v>0.001975679397583008</v>
+        <v>0.003989601135253906</v>
       </c>
       <c r="E51">
-        <v>2.576403720580208E-05</v>
+        <v>2.534872791290667E-06</v>
       </c>
       <c r="F51">
         <v>0.01</v>
@@ -3548,28 +3548,28 @@
         <v>66</v>
       </c>
       <c r="I51">
-        <v>-0.2096402199408584</v>
+        <v>-0.2045611648417292</v>
       </c>
       <c r="J51">
-        <v>-0.2214360467621911</v>
+        <v>-0.2198335983146896</v>
       </c>
       <c r="K51">
-        <v>-0.2279350971533126</v>
+        <v>-0.2169166870751588</v>
       </c>
       <c r="L51">
-        <v>-0.2241625599393083</v>
+        <v>-0.2175601679250664</v>
       </c>
       <c r="M51">
-        <v>-0.2144533268781292</v>
+        <v>-0.2207518581523454</v>
       </c>
       <c r="N51">
-        <v>-0.2195254501347599</v>
+        <v>-0.2159246952617979</v>
       </c>
       <c r="O51">
-        <v>0.006622983317293153</v>
+        <v>0.005854394364008705</v>
       </c>
       <c r="P51">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3577,16 +3577,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.414811658859253</v>
+        <v>6.3713613986969</v>
       </c>
       <c r="C52">
-        <v>0.153090998067756</v>
+        <v>0.2262331021513952</v>
       </c>
       <c r="D52">
-        <v>0.00195002555847168</v>
+        <v>0.004387950897216797</v>
       </c>
       <c r="E52">
-        <v>3.625938228259551E-05</v>
+        <v>0.0004877601903668971</v>
       </c>
       <c r="F52">
         <v>0.01</v>
@@ -3598,28 +3598,28 @@
         <v>67</v>
       </c>
       <c r="I52">
-        <v>-0.2127225983331942</v>
+        <v>-0.2040522991259192</v>
       </c>
       <c r="J52">
-        <v>-0.2174550194623016</v>
+        <v>-0.2187365473586703</v>
       </c>
       <c r="K52">
-        <v>-0.218773452995489</v>
+        <v>-0.225835743958359</v>
       </c>
       <c r="L52">
-        <v>-0.2230153996501227</v>
+        <v>-0.2202107247486041</v>
       </c>
       <c r="M52">
-        <v>-0.2198721604581589</v>
+        <v>-0.2138800741217607</v>
       </c>
       <c r="N52">
-        <v>-0.2183677261798533</v>
+        <v>-0.2165430778626626</v>
       </c>
       <c r="O52">
-        <v>0.003368361838944928</v>
+        <v>0.007317482185155167</v>
       </c>
       <c r="P52">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3627,16 +3627,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.465159893035889</v>
+        <v>6.358994579315185</v>
       </c>
       <c r="C53">
-        <v>0.1428604715459215</v>
+        <v>0.1624956641014997</v>
       </c>
       <c r="D53">
-        <v>0.001949834823608398</v>
+        <v>0.004588174819946289</v>
       </c>
       <c r="E53">
-        <v>3.113618851006536E-05</v>
+        <v>0.0007981898016151576</v>
       </c>
       <c r="F53">
         <v>0.01</v>
@@ -3648,28 +3648,28 @@
         <v>68</v>
       </c>
       <c r="I53">
-        <v>-0.214572283742056</v>
+        <v>-0.2135536616877834</v>
       </c>
       <c r="J53">
-        <v>-0.2166702131048074</v>
+        <v>-0.2115551770553409</v>
       </c>
       <c r="K53">
-        <v>-0.2221480342228977</v>
+        <v>-0.2186482184856566</v>
       </c>
       <c r="L53">
-        <v>-0.2153766167962379</v>
+        <v>-0.2182651548653062</v>
       </c>
       <c r="M53">
-        <v>-0.2180999965419839</v>
+        <v>-0.2183714874328346</v>
       </c>
       <c r="N53">
-        <v>-0.2173734288815966</v>
+        <v>-0.2160787399053844</v>
       </c>
       <c r="O53">
-        <v>0.00267031615192034</v>
+        <v>0.002948829009602738</v>
       </c>
       <c r="P53">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3677,16 +3677,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.606527376174927</v>
+        <v>6.570628213882446</v>
       </c>
       <c r="C54">
-        <v>0.1695604407392743</v>
+        <v>0.1223813643721592</v>
       </c>
       <c r="D54">
-        <v>0.001939105987548828</v>
+        <v>0.004787015914916992</v>
       </c>
       <c r="E54">
-        <v>2.346232646595564E-05</v>
+        <v>0.0007466847156869753</v>
       </c>
       <c r="F54">
         <v>0.01</v>
@@ -3698,28 +3698,28 @@
         <v>69</v>
       </c>
       <c r="I54">
-        <v>-0.2072870360117409</v>
+        <v>-0.2084676932301853</v>
       </c>
       <c r="J54">
-        <v>-0.2133938573714573</v>
+        <v>-0.2169382174159343</v>
       </c>
       <c r="K54">
-        <v>-0.2199515358082241</v>
+        <v>-0.2152792621171461</v>
       </c>
       <c r="L54">
-        <v>-0.2131678576889738</v>
+        <v>-0.2170600459522198</v>
       </c>
       <c r="M54">
-        <v>-0.2118523329141031</v>
+        <v>-0.2153825066631778</v>
       </c>
       <c r="N54">
-        <v>-0.2131305239588999</v>
+        <v>-0.2146255450757327</v>
       </c>
       <c r="O54">
-        <v>0.004058991615605595</v>
+        <v>0.003168429391277758</v>
       </c>
       <c r="P54">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3727,16 +3727,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.6351571559906</v>
+        <v>6.593765687942505</v>
       </c>
       <c r="C55">
-        <v>0.04268646894404623</v>
+        <v>0.06734723770923991</v>
       </c>
       <c r="D55">
-        <v>0.001949882507324219</v>
+        <v>0.004588270187377929</v>
       </c>
       <c r="E55">
-        <v>2.950177278202329E-05</v>
+        <v>0.001016990021005217</v>
       </c>
       <c r="F55">
         <v>0.01</v>
@@ -3748,28 +3748,28 @@
         <v>70</v>
       </c>
       <c r="I55">
-        <v>-0.2019148000444046</v>
+        <v>-0.2095198639535704</v>
       </c>
       <c r="J55">
-        <v>-0.2171705139765761</v>
+        <v>-0.2157403416870221</v>
       </c>
       <c r="K55">
-        <v>-0.2155695225837364</v>
+        <v>-0.2150522955609669</v>
       </c>
       <c r="L55">
-        <v>-0.2141758372124339</v>
+        <v>-0.2061506405643813</v>
       </c>
       <c r="M55">
-        <v>-0.2107587209572065</v>
+        <v>-0.2127806359192163</v>
       </c>
       <c r="N55">
-        <v>-0.2119178789548715</v>
+        <v>-0.2118487555370314</v>
       </c>
       <c r="O55">
-        <v>0.005430069728998685</v>
+        <v>0.003582394806369401</v>
       </c>
       <c r="P55">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3777,16 +3777,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.786558389663696</v>
+        <v>6.68033447265625</v>
       </c>
       <c r="C56">
-        <v>0.1513551321244339</v>
+        <v>0.1327367927801121</v>
       </c>
       <c r="D56">
-        <v>0.001960659027099609</v>
+        <v>0.004986953735351562</v>
       </c>
       <c r="E56">
-        <v>4.547476754431163E-05</v>
+        <v>0.0006306004458923269</v>
       </c>
       <c r="F56">
         <v>0.01</v>
@@ -3798,28 +3798,28 @@
         <v>71</v>
       </c>
       <c r="I56">
-        <v>-0.2086266941251406</v>
+        <v>-0.203258750321506</v>
       </c>
       <c r="J56">
-        <v>-0.2171427841075651</v>
+        <v>-0.2144133768347515</v>
       </c>
       <c r="K56">
-        <v>-0.2188403942566907</v>
+        <v>-0.213049967493489</v>
       </c>
       <c r="L56">
-        <v>-0.2071269975330007</v>
+        <v>-0.2085716242601282</v>
       </c>
       <c r="M56">
-        <v>-0.2097175421821863</v>
+        <v>-0.2135851027765125</v>
       </c>
       <c r="N56">
-        <v>-0.2122908824409167</v>
+        <v>-0.2105757643372774</v>
       </c>
       <c r="O56">
-        <v>0.00475712346383114</v>
+        <v>0.004182351977934567</v>
       </c>
       <c r="P56">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3827,16 +3827,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.238030910491943</v>
+        <v>4.13972954750061</v>
       </c>
       <c r="C57">
-        <v>0.04549751485601164</v>
+        <v>0.147683528202371</v>
       </c>
       <c r="D57">
-        <v>0.001952600479125977</v>
+        <v>0.004594755172729492</v>
       </c>
       <c r="E57">
-        <v>3.154680546417498E-05</v>
+        <v>0.001019999292226452</v>
       </c>
       <c r="F57">
         <v>0.1</v>
@@ -3848,28 +3848,28 @@
         <v>72</v>
       </c>
       <c r="I57">
-        <v>-0.2160804079235735</v>
+        <v>-0.2170503642338968</v>
       </c>
       <c r="J57">
-        <v>-0.2266697910665509</v>
+        <v>-0.2249227721860387</v>
       </c>
       <c r="K57">
-        <v>-0.2289927984628873</v>
+        <v>-0.2304411116175792</v>
       </c>
       <c r="L57">
-        <v>-0.2307250932448284</v>
+        <v>-0.2275440529912129</v>
       </c>
       <c r="M57">
-        <v>-0.2239848167232316</v>
+        <v>-0.2254934911884878</v>
       </c>
       <c r="N57">
-        <v>-0.2252905814842144</v>
+        <v>-0.2250903584434431</v>
       </c>
       <c r="O57">
-        <v>0.00513176122463989</v>
+        <v>0.004460566881409103</v>
       </c>
       <c r="P57">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3877,16 +3877,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.021718692779541</v>
+        <v>5.069441890716552</v>
       </c>
       <c r="C58">
-        <v>0.04067542525455916</v>
+        <v>0.1192465028135555</v>
       </c>
       <c r="D58">
-        <v>0.002003192901611328</v>
+        <v>0.004587984085083008</v>
       </c>
       <c r="E58">
-        <v>9.068397257138763E-05</v>
+        <v>0.0004885972525974381</v>
       </c>
       <c r="F58">
         <v>0.1</v>
@@ -3898,28 +3898,28 @@
         <v>73</v>
       </c>
       <c r="I58">
-        <v>-0.21423254353431</v>
+        <v>-0.2133443012856553</v>
       </c>
       <c r="J58">
-        <v>-0.2207710695338772</v>
+        <v>-0.2227212593499807</v>
       </c>
       <c r="K58">
-        <v>-0.2250775102914561</v>
+        <v>-0.2255155193434028</v>
       </c>
       <c r="L58">
-        <v>-0.2304061043232194</v>
+        <v>-0.2238897384247744</v>
       </c>
       <c r="M58">
-        <v>-0.2185559220996773</v>
+        <v>-0.2165269955636467</v>
       </c>
       <c r="N58">
-        <v>-0.221808629956508</v>
+        <v>-0.220399562793492</v>
       </c>
       <c r="O58">
-        <v>0.005543570503557838</v>
+        <v>0.004658714504062649</v>
       </c>
       <c r="P58">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3927,16 +3927,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.203096866607666</v>
+        <v>5.612789297103882</v>
       </c>
       <c r="C59">
-        <v>0.02586502686684273</v>
+        <v>0.1463374884851552</v>
       </c>
       <c r="D59">
-        <v>0.001962709426879883</v>
+        <v>0.004587650299072266</v>
       </c>
       <c r="E59">
-        <v>2.642013514708424E-05</v>
+        <v>0.0004884222551612267</v>
       </c>
       <c r="F59">
         <v>0.1</v>
@@ -3948,28 +3948,28 @@
         <v>74</v>
       </c>
       <c r="I59">
-        <v>-0.2060796184490196</v>
+        <v>-0.2054175921928274</v>
       </c>
       <c r="J59">
-        <v>-0.2214986319138863</v>
+        <v>-0.2189893377723029</v>
       </c>
       <c r="K59">
-        <v>-0.2285688187432253</v>
+        <v>-0.2214948588326546</v>
       </c>
       <c r="L59">
-        <v>-0.2168161638506359</v>
+        <v>-0.2204732723938678</v>
       </c>
       <c r="M59">
-        <v>-0.2174837815122523</v>
+        <v>-0.2181811751890241</v>
       </c>
       <c r="N59">
-        <v>-0.2180894028938039</v>
+        <v>-0.2169112472761354</v>
       </c>
       <c r="O59">
-        <v>0.007316609001245027</v>
+        <v>0.005860593861182679</v>
       </c>
       <c r="P59">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3977,16 +3977,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.315575456619263</v>
+        <v>5.645103359222412</v>
       </c>
       <c r="C60">
-        <v>0.04423267830296889</v>
+        <v>0.142274535762666</v>
       </c>
       <c r="D60">
-        <v>0.001964855194091797</v>
+        <v>0.004587411880493164</v>
       </c>
       <c r="E60">
-        <v>3.703965952646421E-05</v>
+        <v>0.0007984640705795105</v>
       </c>
       <c r="F60">
         <v>0.1</v>
@@ -3998,28 +3998,28 @@
         <v>75</v>
       </c>
       <c r="I60">
-        <v>-0.2080551827235234</v>
+        <v>-0.2054014874563714</v>
       </c>
       <c r="J60">
-        <v>-0.22262280960744</v>
+        <v>-0.22010654924051</v>
       </c>
       <c r="K60">
-        <v>-0.219896548439193</v>
+        <v>-0.2222260170221493</v>
       </c>
       <c r="L60">
-        <v>-0.2118660729783869</v>
+        <v>-0.2136025907877287</v>
       </c>
       <c r="M60">
-        <v>-0.2173600042820442</v>
+        <v>-0.2223386543711855</v>
       </c>
       <c r="N60">
-        <v>-0.2159601236061175</v>
+        <v>-0.216735059775589</v>
       </c>
       <c r="O60">
-        <v>0.005312171533850066</v>
+        <v>0.00649892373493131</v>
       </c>
       <c r="P60">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4027,16 +4027,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.266956806182861</v>
+        <v>5.809662580490112</v>
       </c>
       <c r="C61">
-        <v>0.07688912581761988</v>
+        <v>0.1044378717067193</v>
       </c>
       <c r="D61">
-        <v>0.001984596252441406</v>
+        <v>0.004587793350219726</v>
       </c>
       <c r="E61">
-        <v>6.349279695846218E-06</v>
+        <v>0.0004883443337161399</v>
       </c>
       <c r="F61">
         <v>0.1</v>
@@ -4048,28 +4048,28 @@
         <v>76</v>
       </c>
       <c r="I61">
-        <v>-0.2167471932417621</v>
+        <v>-0.2045369763603831</v>
       </c>
       <c r="J61">
-        <v>-0.2218968565744958</v>
+        <v>-0.2185577898034047</v>
       </c>
       <c r="K61">
-        <v>-0.2218653954518605</v>
+        <v>-0.2214282219572281</v>
       </c>
       <c r="L61">
-        <v>-0.226625024712942</v>
+        <v>-0.2153736744193109</v>
       </c>
       <c r="M61">
-        <v>-0.2197743695191816</v>
+        <v>-0.2191267404956234</v>
       </c>
       <c r="N61">
-        <v>-0.2213817679000484</v>
+        <v>-0.21580468060719</v>
       </c>
       <c r="O61">
-        <v>0.003226576073035097</v>
+        <v>0.005956288018417312</v>
       </c>
       <c r="P61">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4077,16 +4077,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.221307706832886</v>
+        <v>5.901815700531006</v>
       </c>
       <c r="C62">
-        <v>0.03015826679303513</v>
+        <v>0.1347894228150986</v>
       </c>
       <c r="D62">
-        <v>0.001973819732666015</v>
+        <v>0.004388904571533203</v>
       </c>
       <c r="E62">
-        <v>3.564892763792945E-05</v>
+        <v>0.0004882467572501453</v>
       </c>
       <c r="F62">
         <v>0.1</v>
@@ -4098,28 +4098,28 @@
         <v>77</v>
       </c>
       <c r="I62">
-        <v>-0.2054103537927011</v>
+        <v>-0.2042840683447654</v>
       </c>
       <c r="J62">
-        <v>-0.2213874836237018</v>
+        <v>-0.2160590447833061</v>
       </c>
       <c r="K62">
-        <v>-0.2314349345489547</v>
+        <v>-0.2194022140946248</v>
       </c>
       <c r="L62">
-        <v>-0.2140796487885041</v>
+        <v>-0.2232682081951571</v>
       </c>
       <c r="M62">
-        <v>-0.216847729851094</v>
+        <v>-0.2185195659534236</v>
       </c>
       <c r="N62">
-        <v>-0.2178320301209911</v>
+        <v>-0.2163066202742554</v>
       </c>
       <c r="O62">
-        <v>0.008567701138307363</v>
+        <v>0.006442772455722872</v>
       </c>
       <c r="P62">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4127,16 +4127,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.447315549850464</v>
+        <v>6.354605770111084</v>
       </c>
       <c r="C63">
-        <v>0.1374379281126264</v>
+        <v>0.04814786508968886</v>
       </c>
       <c r="D63">
-        <v>0.001936769485473633</v>
+        <v>0.004388093948364258</v>
       </c>
       <c r="E63">
-        <v>2.569997460792572E-05</v>
+        <v>0.0007976890514403372</v>
       </c>
       <c r="F63">
         <v>0.1</v>
@@ -4148,28 +4148,28 @@
         <v>78</v>
       </c>
       <c r="I63">
-        <v>-0.2098383703972513</v>
+        <v>-0.20677501827047</v>
       </c>
       <c r="J63">
-        <v>-0.2219862945904085</v>
+        <v>-0.2194338438277402</v>
       </c>
       <c r="K63">
-        <v>-0.2200054368422461</v>
+        <v>-0.2169498162855902</v>
       </c>
       <c r="L63">
-        <v>-0.2153309783464069</v>
+        <v>-0.2131978496136359</v>
       </c>
       <c r="M63">
-        <v>-0.2156860263602074</v>
+        <v>-0.2165712497446321</v>
       </c>
       <c r="N63">
-        <v>-0.216569421307304</v>
+        <v>-0.2145855555484137</v>
       </c>
       <c r="O63">
-        <v>0.004213547030121946</v>
+        <v>0.004381069044086632</v>
       </c>
       <c r="P63">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4177,16 +4177,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.545753383636475</v>
+        <v>6.595361185073853</v>
       </c>
       <c r="C64">
-        <v>0.1899060274349819</v>
+        <v>0.2357623048180816</v>
       </c>
       <c r="D64">
-        <v>0.001936674118041992</v>
+        <v>0.004189157485961914</v>
       </c>
       <c r="E64">
-        <v>3.557505607704047E-05</v>
+        <v>0.000399875669299688</v>
       </c>
       <c r="F64">
         <v>0.1</v>
@@ -4198,28 +4198,28 @@
         <v>79</v>
       </c>
       <c r="I64">
-        <v>-0.2076143228950427</v>
+        <v>-0.2097718824304856</v>
       </c>
       <c r="J64">
-        <v>-0.2152313870698752</v>
+        <v>-0.2195756616051756</v>
       </c>
       <c r="K64">
-        <v>-0.225065218940797</v>
+        <v>-0.2165751068973747</v>
       </c>
       <c r="L64">
-        <v>-0.2175857607906199</v>
+        <v>-0.2124117312003435</v>
       </c>
       <c r="M64">
-        <v>-0.2195510763248175</v>
+        <v>-0.2192382539630859</v>
       </c>
       <c r="N64">
-        <v>-0.2170095532042304</v>
+        <v>-0.2155145272192931</v>
       </c>
       <c r="O64">
-        <v>0.005711695593752039</v>
+        <v>0.003849392027887574</v>
       </c>
       <c r="P64">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4227,16 +4227,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.533766174316406</v>
+        <v>6.739776611328125</v>
       </c>
       <c r="C65">
-        <v>0.1643292557227506</v>
+        <v>0.2880977468796524</v>
       </c>
       <c r="D65">
-        <v>0.001945257186889648</v>
+        <v>0.00418858528137207</v>
       </c>
       <c r="E65">
-        <v>2.185974648323938E-05</v>
+        <v>0.0003977776716950535</v>
       </c>
       <c r="F65">
         <v>0.1</v>
@@ -4248,28 +4248,28 @@
         <v>80</v>
       </c>
       <c r="I65">
-        <v>-0.2119221973716693</v>
+        <v>-0.2106087584259442</v>
       </c>
       <c r="J65">
-        <v>-0.2126094920619555</v>
+        <v>-0.2135531421931071</v>
       </c>
       <c r="K65">
-        <v>-0.2215474741057246</v>
+        <v>-0.2196658250843632</v>
       </c>
       <c r="L65">
-        <v>-0.2103212053614873</v>
+        <v>-0.2110486179657702</v>
       </c>
       <c r="M65">
-        <v>-0.2159570164215326</v>
+        <v>-0.212070095969748</v>
       </c>
       <c r="N65">
-        <v>-0.2144714770644739</v>
+        <v>-0.2133892879277866</v>
       </c>
       <c r="O65">
-        <v>0.003986656032805442</v>
+        <v>0.003297638988791988</v>
       </c>
       <c r="P65">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4277,16 +4277,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.683425188064575</v>
+        <v>6.753936815261841</v>
       </c>
       <c r="C66">
-        <v>0.04876633797669368</v>
+        <v>0.2453294955274325</v>
       </c>
       <c r="D66">
-        <v>0.001948118209838867</v>
+        <v>0.004787445068359375</v>
       </c>
       <c r="E66">
-        <v>2.330948594111735E-05</v>
+        <v>0.0003985167227210679</v>
       </c>
       <c r="F66">
         <v>0.1</v>
@@ -4298,28 +4298,28 @@
         <v>81</v>
       </c>
       <c r="I66">
-        <v>-0.2064075902511823</v>
+        <v>-0.2027753193620604</v>
       </c>
       <c r="J66">
-        <v>-0.2167742471571719</v>
+        <v>-0.2173731169747434</v>
       </c>
       <c r="K66">
-        <v>-0.217176594285235</v>
+        <v>-0.2146929583664874</v>
       </c>
       <c r="L66">
-        <v>-0.207488056081989</v>
+        <v>-0.2061499244762172</v>
       </c>
       <c r="M66">
-        <v>-0.2141460864572993</v>
+        <v>-0.2118880107965214</v>
       </c>
       <c r="N66">
-        <v>-0.2123985148465755</v>
+        <v>-0.2105758659952059</v>
       </c>
       <c r="O66">
-        <v>0.00458333646369403</v>
+        <v>0.005390960592649381</v>
       </c>
       <c r="P66">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4327,16 +4327,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.606427383422852</v>
+        <v>6.741969299316406</v>
       </c>
       <c r="C67">
-        <v>0.1819593546538958</v>
+        <v>0.2309842269984844</v>
       </c>
       <c r="D67">
-        <v>0.001942634582519531</v>
+        <v>0.004388856887817383</v>
       </c>
       <c r="E67">
-        <v>1.225388000849978E-05</v>
+        <v>0.001017897295560419</v>
       </c>
       <c r="F67">
         <v>0.1</v>
@@ -4348,28 +4348,28 @@
         <v>82</v>
       </c>
       <c r="I67">
-        <v>-0.207105291341854</v>
+        <v>-0.2072359584677351</v>
       </c>
       <c r="J67">
-        <v>-0.2128186937503793</v>
+        <v>-0.2175051010532193</v>
       </c>
       <c r="K67">
-        <v>-0.2184392411145033</v>
+        <v>-0.2203695787573234</v>
       </c>
       <c r="L67">
-        <v>-0.2090146952536371</v>
+        <v>-0.2129361974616345</v>
       </c>
       <c r="M67">
-        <v>-0.2131960319365336</v>
+        <v>-0.2114935089814778</v>
       </c>
       <c r="N67">
-        <v>-0.2121147906793815</v>
+        <v>-0.2139080689442781</v>
       </c>
       <c r="O67">
-        <v>0.003908168644192585</v>
+        <v>0.004603942685585115</v>
       </c>
       <c r="P67">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4377,16 +4377,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.108211135864258</v>
+        <v>4.063731575012207</v>
       </c>
       <c r="C68">
-        <v>0.1153004201312185</v>
+        <v>0.07755069762293228</v>
       </c>
       <c r="D68">
-        <v>0.001933193206787109</v>
+        <v>0.004587936401367188</v>
       </c>
       <c r="E68">
-        <v>1.345711847103668E-05</v>
+        <v>0.0004888504313250052</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -4398,28 +4398,28 @@
         <v>83</v>
       </c>
       <c r="I68">
-        <v>-0.2197568944445919</v>
+        <v>-0.2221127015713674</v>
       </c>
       <c r="J68">
-        <v>-0.2269711235501813</v>
+        <v>-0.2265677681261214</v>
       </c>
       <c r="K68">
-        <v>-0.2326461712557269</v>
+        <v>-0.2396045098410713</v>
       </c>
       <c r="L68">
-        <v>-0.2162809694253982</v>
+        <v>-0.2203078000128965</v>
       </c>
       <c r="M68">
-        <v>-0.229321866779818</v>
+        <v>-0.2265365913795123</v>
       </c>
       <c r="N68">
-        <v>-0.2249954050911433</v>
+        <v>-0.2270258741861938</v>
       </c>
       <c r="O68">
-        <v>0.006075184603689546</v>
+        <v>0.006751934826497484</v>
       </c>
       <c r="P68">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4427,16 +4427,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.036159563064575</v>
+        <v>4.965520620346069</v>
       </c>
       <c r="C69">
-        <v>0.03598229392695428</v>
+        <v>0.05264683418021562</v>
       </c>
       <c r="D69">
-        <v>0.001932096481323242</v>
+        <v>0.004188871383666993</v>
       </c>
       <c r="E69">
-        <v>2.640119499223938E-05</v>
+        <v>0.0007460091296108157</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -4448,28 +4448,28 @@
         <v>84</v>
       </c>
       <c r="I69">
-        <v>-0.2084455585540494</v>
+        <v>-0.2085947248060254</v>
       </c>
       <c r="J69">
-        <v>-0.2216015912278543</v>
+        <v>-0.218589492834798</v>
       </c>
       <c r="K69">
-        <v>-0.2224221772476846</v>
+        <v>-0.2286495442541274</v>
       </c>
       <c r="L69">
-        <v>-0.2187381443253345</v>
+        <v>-0.2227831518068476</v>
       </c>
       <c r="M69">
-        <v>-0.2226133478801612</v>
+        <v>-0.2184318061822914</v>
       </c>
       <c r="N69">
-        <v>-0.2187641638470169</v>
+        <v>-0.219409743976818</v>
       </c>
       <c r="O69">
-        <v>0.005342706544618937</v>
+        <v>0.006562737286877054</v>
       </c>
       <c r="P69">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4477,16 +4477,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.202018022537231</v>
+        <v>5.303217220306396</v>
       </c>
       <c r="C70">
-        <v>0.03300555431661718</v>
+        <v>0.1313894019509329</v>
       </c>
       <c r="D70">
-        <v>0.001916265487670898</v>
+        <v>0.004987096786499024</v>
       </c>
       <c r="E70">
-        <v>3.047642317002744E-05</v>
+        <v>8.34124359347148E-07</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -4498,28 +4498,28 @@
         <v>85</v>
       </c>
       <c r="I70">
-        <v>-0.208576048858461</v>
+        <v>-0.2075490212319956</v>
       </c>
       <c r="J70">
-        <v>-0.2220270543028536</v>
+        <v>-0.2225002145913292</v>
       </c>
       <c r="K70">
-        <v>-0.2324598671124642</v>
+        <v>-0.235732271227976</v>
       </c>
       <c r="L70">
-        <v>-0.221562248058108</v>
+        <v>-0.2226754344057533</v>
       </c>
       <c r="M70">
-        <v>-0.222614347264842</v>
+        <v>-0.2194121650522985</v>
       </c>
       <c r="N70">
-        <v>-0.2214479131193458</v>
+        <v>-0.2215738213018705</v>
       </c>
       <c r="O70">
-        <v>0.007598119055419403</v>
+        <v>0.008987783208430382</v>
       </c>
       <c r="P70">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4527,16 +4527,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.296468639373779</v>
+        <v>5.623161792755127</v>
       </c>
       <c r="C71">
-        <v>0.03780972155572586</v>
+        <v>0.1441517046376705</v>
       </c>
       <c r="D71">
-        <v>0.001959943771362305</v>
+        <v>0.004189729690551758</v>
       </c>
       <c r="E71">
-        <v>3.144472622639551E-05</v>
+        <v>0.0007457794435546887</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -4548,28 +4548,28 @@
         <v>86</v>
       </c>
       <c r="I71">
-        <v>-0.2066403433317837</v>
+        <v>-0.2072740831525147</v>
       </c>
       <c r="J71">
-        <v>-0.2168116539686622</v>
+        <v>-0.2230738194750897</v>
       </c>
       <c r="K71">
-        <v>-0.2218636685483757</v>
+        <v>-0.2235000813982148</v>
       </c>
       <c r="L71">
-        <v>-0.2164571222878325</v>
+        <v>-0.2195539137776444</v>
       </c>
       <c r="M71">
-        <v>-0.2170697890634276</v>
+        <v>-0.2144633571147579</v>
       </c>
       <c r="N71">
-        <v>-0.2157685154400164</v>
+        <v>-0.2175730509836443</v>
       </c>
       <c r="O71">
-        <v>0.004974536116577092</v>
+        <v>0.006083599186093844</v>
       </c>
       <c r="P71">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4577,16 +4577,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.293350267410278</v>
+        <v>5.765972852706909</v>
       </c>
       <c r="C72">
-        <v>0.06544869786057722</v>
+        <v>0.1456503911280494</v>
       </c>
       <c r="D72">
-        <v>0.00195622444152832</v>
+        <v>0.003797340393066406</v>
       </c>
       <c r="E72">
-        <v>4.239428284027255E-05</v>
+        <v>0.0004027266651315232</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -4598,28 +4598,28 @@
         <v>87</v>
       </c>
       <c r="I72">
-        <v>-0.2130321943929441</v>
+        <v>-0.2071332480650163</v>
       </c>
       <c r="J72">
-        <v>-0.2239009775282706</v>
+        <v>-0.215300539795834</v>
       </c>
       <c r="K72">
-        <v>-0.2229159378458333</v>
+        <v>-0.2220644127217948</v>
       </c>
       <c r="L72">
-        <v>-0.2142300232732375</v>
+        <v>-0.2243990685882354</v>
       </c>
       <c r="M72">
-        <v>-0.218791591537464</v>
+        <v>-0.2245314031552061</v>
       </c>
       <c r="N72">
-        <v>-0.2185741449155499</v>
+        <v>-0.2186857344652173</v>
       </c>
       <c r="O72">
-        <v>0.004401322596788449</v>
+        <v>0.006680553584431132</v>
       </c>
       <c r="P72">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4627,16 +4627,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.22410831451416</v>
+        <v>5.930945539474488</v>
       </c>
       <c r="C73">
-        <v>0.06393911115942867</v>
+        <v>0.08113472998257246</v>
       </c>
       <c r="D73">
-        <v>0.001951074600219726</v>
+        <v>0.004181575775146484</v>
       </c>
       <c r="E73">
-        <v>2.755797014297174E-05</v>
+        <v>0.000738351405231405</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4648,28 +4648,28 @@
         <v>88</v>
       </c>
       <c r="I73">
-        <v>-0.207684873611811</v>
+        <v>-0.2044955055226177</v>
       </c>
       <c r="J73">
-        <v>-0.2228439573937242</v>
+        <v>-0.2190156681456796</v>
       </c>
       <c r="K73">
-        <v>-0.2205402189872848</v>
+        <v>-0.2198915188501225</v>
       </c>
       <c r="L73">
-        <v>-0.220717348292281</v>
+        <v>-0.2218489200096273</v>
       </c>
       <c r="M73">
-        <v>-0.2200372312670203</v>
+        <v>-0.2170703934591135</v>
       </c>
       <c r="N73">
-        <v>-0.2183647259104243</v>
+        <v>-0.2164644011974322</v>
       </c>
       <c r="O73">
-        <v>0.005425636113270115</v>
+        <v>0.006178492236481227</v>
       </c>
       <c r="P73">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4677,16 +4677,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.429430866241455</v>
+        <v>6.318900585174561</v>
       </c>
       <c r="C74">
-        <v>0.1044492675306071</v>
+        <v>0.1342553466207102</v>
       </c>
       <c r="D74">
-        <v>0.001941490173339844</v>
+        <v>0.004588842391967773</v>
       </c>
       <c r="E74">
-        <v>2.977366022842248E-05</v>
+        <v>0.0007979872763102931</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -4698,28 +4698,28 @@
         <v>89</v>
       </c>
       <c r="I74">
-        <v>-0.2124358409090119</v>
+        <v>-0.2045954497304358</v>
       </c>
       <c r="J74">
-        <v>-0.2189090638942096</v>
+        <v>-0.2126143657217791</v>
       </c>
       <c r="K74">
-        <v>-0.2223714307844927</v>
+        <v>-0.2167387522872145</v>
       </c>
       <c r="L74">
-        <v>-0.2132919363887309</v>
+        <v>-0.2116533491487928</v>
       </c>
       <c r="M74">
-        <v>-0.2107973105339407</v>
+        <v>-0.2133831641326802</v>
       </c>
       <c r="N74">
-        <v>-0.2155611165020772</v>
+        <v>-0.2117970162041805</v>
       </c>
       <c r="O74">
-        <v>0.004363473515153437</v>
+        <v>0.00398717646707369</v>
       </c>
       <c r="P74">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4727,16 +4727,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.472914075851441</v>
+        <v>6.964574193954467</v>
       </c>
       <c r="C75">
-        <v>0.1562872416212053</v>
+        <v>0.5447211745576488</v>
       </c>
       <c r="D75">
-        <v>0.001916360855102539</v>
+        <v>0.004787731170654297</v>
       </c>
       <c r="E75">
-        <v>1.133168166998221E-05</v>
+        <v>0.0007467480360551046</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -4748,28 +4748,28 @@
         <v>90</v>
       </c>
       <c r="I75">
-        <v>-0.2101826290187647</v>
+        <v>-0.2125612650858701</v>
       </c>
       <c r="J75">
-        <v>-0.2104021106477441</v>
+        <v>-0.2182706720937157</v>
       </c>
       <c r="K75">
-        <v>-0.2198843164304229</v>
+        <v>-0.2217726917573476</v>
       </c>
       <c r="L75">
-        <v>-0.2146385457314959</v>
+        <v>-0.2182045539655418</v>
       </c>
       <c r="M75">
-        <v>-0.2144983458597163</v>
+        <v>-0.2099514121745132</v>
       </c>
       <c r="N75">
-        <v>-0.2139211895376288</v>
+        <v>-0.2161521190153977</v>
       </c>
       <c r="O75">
-        <v>0.003543087429206618</v>
+        <v>0.004280995014890088</v>
       </c>
       <c r="P75">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4777,16 +4777,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.590506887435913</v>
+        <v>6.551072120666504</v>
       </c>
       <c r="C76">
-        <v>0.2155776353435022</v>
+        <v>0.3521088688336774</v>
       </c>
       <c r="D76">
-        <v>0.001970529556274414</v>
+        <v>0.004394197463989257</v>
       </c>
       <c r="E76">
-        <v>4.499609864181849E-05</v>
+        <v>0.0004830897612981077</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -4798,28 +4798,28 @@
         <v>91</v>
       </c>
       <c r="I76">
-        <v>-0.2072080602851834</v>
+        <v>-0.2130799272419217</v>
       </c>
       <c r="J76">
-        <v>-0.2135699582895937</v>
+        <v>-0.2186631751851493</v>
       </c>
       <c r="K76">
-        <v>-0.2160006357918478</v>
+        <v>-0.2221311183223564</v>
       </c>
       <c r="L76">
-        <v>-0.2074165591523989</v>
+        <v>-0.2199741929414766</v>
       </c>
       <c r="M76">
-        <v>-0.217644130206279</v>
+        <v>-0.2181621911708587</v>
       </c>
       <c r="N76">
-        <v>-0.2123678687450606</v>
+        <v>-0.2184021209723526</v>
       </c>
       <c r="O76">
-        <v>0.004327124697104092</v>
+        <v>0.002994270970648537</v>
       </c>
       <c r="P76">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4827,16 +4827,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.644470357894897</v>
+        <v>6.557658195495605</v>
       </c>
       <c r="C77">
-        <v>0.06170465241513441</v>
+        <v>0.1862693323041588</v>
       </c>
       <c r="D77">
-        <v>0.001937246322631836</v>
+        <v>0.004388093948364258</v>
       </c>
       <c r="E77">
-        <v>3.852732109100027E-05</v>
+        <v>0.001016747149170632</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -4848,28 +4848,28 @@
         <v>92</v>
       </c>
       <c r="I77">
-        <v>-0.2053786148305638</v>
+        <v>-0.2083656623976983</v>
       </c>
       <c r="J77">
-        <v>-0.2164336704740423</v>
+        <v>-0.2158019297155119</v>
       </c>
       <c r="K77">
-        <v>-0.2170225132631509</v>
+        <v>-0.21350323198263</v>
       </c>
       <c r="L77">
-        <v>-0.2097990749635252</v>
+        <v>-0.2126613770456695</v>
       </c>
       <c r="M77">
-        <v>-0.2158636139621851</v>
+        <v>-0.2107147720717408</v>
       </c>
       <c r="N77">
-        <v>-0.2128994974986934</v>
+        <v>-0.2122093946426501</v>
       </c>
       <c r="O77">
-        <v>0.004570599961211761</v>
+        <v>0.00252161795698957</v>
       </c>
       <c r="P77">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4877,16 +4877,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.670651483535766</v>
+        <v>6.748352193832398</v>
       </c>
       <c r="C78">
-        <v>0.1978458836016441</v>
+        <v>0.1728944904213758</v>
       </c>
       <c r="D78">
-        <v>0.001946163177490234</v>
+        <v>0.004786968231201172</v>
       </c>
       <c r="E78">
-        <v>2.409108551966614E-05</v>
+        <v>0.0007457795807509407</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4898,28 +4898,28 @@
         <v>93</v>
       </c>
       <c r="I78">
-        <v>-0.2083827414804811</v>
+        <v>-0.2053330083327442</v>
       </c>
       <c r="J78">
-        <v>-0.2082609719669609</v>
+        <v>-0.2135359155915521</v>
       </c>
       <c r="K78">
-        <v>-0.2153733015749456</v>
+        <v>-0.2177718082783936</v>
       </c>
       <c r="L78">
-        <v>-0.2107597116588188</v>
+        <v>-0.208459777150723</v>
       </c>
       <c r="M78">
-        <v>-0.2148492228037824</v>
+        <v>-0.2152646082097864</v>
       </c>
       <c r="N78">
-        <v>-0.2115251898969978</v>
+        <v>-0.2120730235126398</v>
       </c>
       <c r="O78">
-        <v>0.003065068218807312</v>
+        <v>0.004545014143368978</v>
       </c>
       <c r="P78">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4927,16 +4927,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.108803129196167</v>
+        <v>3.99052848815918</v>
       </c>
       <c r="C79">
-        <v>0.1651411296741196</v>
+        <v>0.07733566391923689</v>
       </c>
       <c r="D79">
-        <v>0.001949262619018555</v>
+        <v>0.004787015914916992</v>
       </c>
       <c r="E79">
-        <v>2.344051154850482E-05</v>
+        <v>0.0007464294005036853</v>
       </c>
       <c r="F79">
         <v>10</v>
@@ -4948,28 +4948,28 @@
         <v>94</v>
       </c>
       <c r="I79">
-        <v>-0.2108605665211639</v>
+        <v>-0.2177996955469233</v>
       </c>
       <c r="J79">
-        <v>-0.2213733801414798</v>
+        <v>-0.2289386094759322</v>
       </c>
       <c r="K79">
-        <v>-0.2277480407820207</v>
+        <v>-0.2254802569460679</v>
       </c>
       <c r="L79">
-        <v>-0.2296340811498506</v>
+        <v>-0.2295972833571999</v>
       </c>
       <c r="M79">
-        <v>-0.2201905046165414</v>
+        <v>-0.2247125932105293</v>
       </c>
       <c r="N79">
-        <v>-0.2219613146422112</v>
+        <v>-0.2253056877073306</v>
       </c>
       <c r="O79">
-        <v>0.006619147819304325</v>
+        <v>0.004203286038615565</v>
       </c>
       <c r="P79">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4977,16 +4977,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2.051667308807373</v>
+        <v>4.836865472793579</v>
       </c>
       <c r="C80">
-        <v>0.04952284059840292</v>
+        <v>0.06405099401917953</v>
       </c>
       <c r="D80">
-        <v>0.001986598968505859</v>
+        <v>0.003789424896240234</v>
       </c>
       <c r="E80">
-        <v>2.017229714221299E-05</v>
+        <v>0.0007456524194840125</v>
       </c>
       <c r="F80">
         <v>10</v>
@@ -4998,28 +4998,28 @@
         <v>95</v>
       </c>
       <c r="I80">
-        <v>-0.2066985170388842</v>
+        <v>-0.2150169039279907</v>
       </c>
       <c r="J80">
-        <v>-0.225858363091557</v>
+        <v>-0.2189068649273299</v>
       </c>
       <c r="K80">
-        <v>-0.2297248495230317</v>
+        <v>-0.2291070362527092</v>
       </c>
       <c r="L80">
-        <v>-0.2176642505546861</v>
+        <v>-0.2251502814331929</v>
       </c>
       <c r="M80">
-        <v>-0.2203389571918375</v>
+        <v>-0.2205309706232621</v>
       </c>
       <c r="N80">
-        <v>-0.2200569874799993</v>
+        <v>-0.221742411432897</v>
       </c>
       <c r="O80">
-        <v>0.00789147571633823</v>
+        <v>0.004911041451556794</v>
       </c>
       <c r="P80">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5027,16 +5027,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.237110376358032</v>
+        <v>5.464785051345825</v>
       </c>
       <c r="C81">
-        <v>0.09151829185579473</v>
+        <v>0.1230513233131678</v>
       </c>
       <c r="D81">
-        <v>0.001975154876708984</v>
+        <v>0.003989219665527344</v>
       </c>
       <c r="E81">
-        <v>5.249793043383222E-05</v>
+        <v>0.0006307510475381609</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -5048,28 +5048,28 @@
         <v>96</v>
       </c>
       <c r="I81">
-        <v>-0.2041889192989296</v>
+        <v>-0.2062246939490852</v>
       </c>
       <c r="J81">
-        <v>-0.2157122668473079</v>
+        <v>-0.2252241135816696</v>
       </c>
       <c r="K81">
-        <v>-0.231384145055381</v>
+        <v>-0.2202635278438327</v>
       </c>
       <c r="L81">
-        <v>-0.2171443129078533</v>
+        <v>-0.2242016637141894</v>
       </c>
       <c r="M81">
-        <v>-0.2184511232731541</v>
+        <v>-0.2160963423860072</v>
       </c>
       <c r="N81">
-        <v>-0.2173761534765252</v>
+        <v>-0.2184020682949568</v>
       </c>
       <c r="O81">
-        <v>0.008649911007124597</v>
+        <v>0.006888330109678807</v>
       </c>
       <c r="P81">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5077,16 +5077,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2.301947546005249</v>
+        <v>5.515648698806762</v>
       </c>
       <c r="C82">
-        <v>0.07175130057858076</v>
+        <v>0.1264479450774786</v>
       </c>
       <c r="D82">
-        <v>0.00196995735168457</v>
+        <v>0.004389047622680664</v>
       </c>
       <c r="E82">
-        <v>3.509489090396814E-05</v>
+        <v>0.0004886169695078363</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -5098,28 +5098,28 @@
         <v>97</v>
       </c>
       <c r="I82">
-        <v>-0.208215035655363</v>
+        <v>-0.2044043681358681</v>
       </c>
       <c r="J82">
-        <v>-0.219318040044343</v>
+        <v>-0.2221349104045042</v>
       </c>
       <c r="K82">
-        <v>-0.2223639591010348</v>
+        <v>-0.2209735848580705</v>
       </c>
       <c r="L82">
-        <v>-0.2266248114993751</v>
+        <v>-0.2114586439876218</v>
       </c>
       <c r="M82">
-        <v>-0.2145424789905148</v>
+        <v>-0.2117358766477372</v>
       </c>
       <c r="N82">
-        <v>-0.2182128650581261</v>
+        <v>-0.2141414768067604</v>
       </c>
       <c r="O82">
-        <v>0.006366194516125656</v>
+        <v>0.006608607575512754</v>
       </c>
       <c r="P82">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5127,16 +5127,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.337520980834961</v>
+        <v>5.73187141418457</v>
       </c>
       <c r="C83">
-        <v>0.04191174960288101</v>
+        <v>0.2153077815593242</v>
       </c>
       <c r="D83">
-        <v>0.002087020874023438</v>
+        <v>0.004388570785522461</v>
       </c>
       <c r="E83">
-        <v>0.0002594381804810118</v>
+        <v>0.001016793696384716</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -5148,28 +5148,28 @@
         <v>98</v>
       </c>
       <c r="I83">
-        <v>-0.2154456317925414</v>
+        <v>-0.2131342289354945</v>
       </c>
       <c r="J83">
-        <v>-0.217315534834389</v>
+        <v>-0.2228119546862093</v>
       </c>
       <c r="K83">
-        <v>-0.2266230572553869</v>
+        <v>-0.2304615950836451</v>
       </c>
       <c r="L83">
-        <v>-0.2199164712592818</v>
+        <v>-0.216578421495922</v>
       </c>
       <c r="M83">
-        <v>-0.2182237018683176</v>
+        <v>-0.2198832235576363</v>
       </c>
       <c r="N83">
-        <v>-0.2195048794019833</v>
+        <v>-0.2205738847517814</v>
       </c>
       <c r="O83">
-        <v>0.003840572886246629</v>
+        <v>0.0059087222107164</v>
       </c>
       <c r="P83">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5177,16 +5177,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2.230487966537475</v>
+        <v>5.900420761108398</v>
       </c>
       <c r="C84">
-        <v>0.06505661453997152</v>
+        <v>0.1326740110739198</v>
       </c>
       <c r="D84">
-        <v>0.001989078521728515</v>
+        <v>0.004189205169677734</v>
       </c>
       <c r="E84">
-        <v>1.170865850009054E-05</v>
+        <v>0.0003988991328887849</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -5198,28 +5198,28 @@
         <v>99</v>
       </c>
       <c r="I84">
-        <v>-0.2068188912720224</v>
+        <v>-0.2088207684377593</v>
       </c>
       <c r="J84">
-        <v>-0.2154670272061994</v>
+        <v>-0.2171463230335478</v>
       </c>
       <c r="K84">
-        <v>-0.2202380097909628</v>
+        <v>-0.2188964821635249</v>
       </c>
       <c r="L84">
-        <v>-0.2214585796311171</v>
+        <v>-0.216943117837389</v>
       </c>
       <c r="M84">
-        <v>-0.2179809070901267</v>
+        <v>-0.2161288735171882</v>
       </c>
       <c r="N84">
-        <v>-0.2163926829980857</v>
+        <v>-0.2155871129978818</v>
       </c>
       <c r="O84">
-        <v>0.005205509182898613</v>
+        <v>0.003501392080335365</v>
       </c>
       <c r="P84">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5227,16 +5227,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.494217300415039</v>
+        <v>6.906138467788696</v>
       </c>
       <c r="C85">
-        <v>0.1378636294021877</v>
+        <v>0.190292902062805</v>
       </c>
       <c r="D85">
-        <v>0.001976919174194336</v>
+        <v>0.004587841033935547</v>
       </c>
       <c r="E85">
-        <v>3.252798420213823E-05</v>
+        <v>0.001196965458122935</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -5248,28 +5248,28 @@
         <v>100</v>
       </c>
       <c r="I85">
-        <v>-0.2115736840535541</v>
+        <v>-0.2044886807288138</v>
       </c>
       <c r="J85">
-        <v>-0.2203845438919258</v>
+        <v>-0.2178342269051263</v>
       </c>
       <c r="K85">
-        <v>-0.2189261597628924</v>
+        <v>-0.2225124059922257</v>
       </c>
       <c r="L85">
-        <v>-0.2181399551389646</v>
+        <v>-0.2090990435156967</v>
       </c>
       <c r="M85">
-        <v>-0.2159684500463808</v>
+        <v>-0.2229788471103702</v>
       </c>
       <c r="N85">
-        <v>-0.2169985585787436</v>
+        <v>-0.2153826408504465</v>
       </c>
       <c r="O85">
-        <v>0.003065084539662747</v>
+        <v>0.007385230359314907</v>
       </c>
       <c r="P85">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5277,16 +5277,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.613929605484009</v>
+        <v>6.77099232673645</v>
       </c>
       <c r="C86">
-        <v>0.1544452871833403</v>
+        <v>0.4698937286110428</v>
       </c>
       <c r="D86">
-        <v>0.001930475234985352</v>
+        <v>0.004587459564208985</v>
       </c>
       <c r="E86">
-        <v>1.796923360905895E-05</v>
+        <v>0.001016859252447728</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -5298,28 +5298,28 @@
         <v>101</v>
       </c>
       <c r="I86">
-        <v>-0.2105691529434623</v>
+        <v>-0.2043355986203511</v>
       </c>
       <c r="J86">
-        <v>-0.2150025953546049</v>
+        <v>-0.2188574908930098</v>
       </c>
       <c r="K86">
-        <v>-0.2207554463548129</v>
+        <v>-0.219389503537526</v>
       </c>
       <c r="L86">
-        <v>-0.2176062238452279</v>
+        <v>-0.2144750129767745</v>
       </c>
       <c r="M86">
-        <v>-0.2168869238227981</v>
+        <v>-0.2271228613995498</v>
       </c>
       <c r="N86">
-        <v>-0.2161640684641812</v>
+        <v>-0.2168360934854422</v>
       </c>
       <c r="O86">
-        <v>0.003356640654445882</v>
+        <v>0.007460035087487159</v>
       </c>
       <c r="P86">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5327,16 +5327,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.556496715545654</v>
+        <v>6.951209592819214</v>
       </c>
       <c r="C87">
-        <v>0.168874316818738</v>
+        <v>0.3718544173245049</v>
       </c>
       <c r="D87">
-        <v>0.001949739456176758</v>
+        <v>0.0047882080078125</v>
       </c>
       <c r="E87">
-        <v>4.117383248720249E-05</v>
+        <v>0.0003984229817587546</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -5348,28 +5348,28 @@
         <v>102</v>
       </c>
       <c r="I87">
-        <v>-0.2077474798631029</v>
+        <v>-0.2047021141755695</v>
       </c>
       <c r="J87">
-        <v>-0.2145469536639583</v>
+        <v>-0.2125770039343859</v>
       </c>
       <c r="K87">
-        <v>-0.2150120987283456</v>
+        <v>-0.2222196188260951</v>
       </c>
       <c r="L87">
-        <v>-0.2066888159338654</v>
+        <v>-0.2067883170180493</v>
       </c>
       <c r="M87">
-        <v>-0.2166963066339388</v>
+        <v>-0.2181140935120354</v>
       </c>
       <c r="N87">
-        <v>-0.2121383309646422</v>
+        <v>-0.212880229493227</v>
       </c>
       <c r="O87">
-        <v>0.00409418939805701</v>
+        <v>0.0066136591864403</v>
       </c>
       <c r="P87">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5377,16 +5377,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.576220369338989</v>
+        <v>6.596558380126953</v>
       </c>
       <c r="C88">
-        <v>0.1481382044622304</v>
+        <v>0.2798536315122346</v>
       </c>
       <c r="D88">
-        <v>0.001935243606567383</v>
+        <v>0.004787206649780273</v>
       </c>
       <c r="E88">
-        <v>3.267256752749055E-05</v>
+        <v>0.0003986360068526309</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -5398,28 +5398,28 @@
         <v>103</v>
       </c>
       <c r="I88">
-        <v>-0.2063878545098623</v>
+        <v>-0.2039358830744805</v>
       </c>
       <c r="J88">
-        <v>-0.2179369797946927</v>
+        <v>-0.2162070512299746</v>
       </c>
       <c r="K88">
-        <v>-0.2154596099723516</v>
+        <v>-0.2185992710594002</v>
       </c>
       <c r="L88">
-        <v>-0.2063228714999281</v>
+        <v>-0.2122901401038892</v>
       </c>
       <c r="M88">
-        <v>-0.2140067450389819</v>
+        <v>-0.2126461299122896</v>
       </c>
       <c r="N88">
-        <v>-0.2120228121631633</v>
+        <v>-0.2127356950760068</v>
       </c>
       <c r="O88">
-        <v>0.00479514377114435</v>
+        <v>0.004981467038426637</v>
       </c>
       <c r="P88">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5427,16 +5427,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2.649213123321533</v>
+        <v>6.565441703796386</v>
       </c>
       <c r="C89">
-        <v>0.04317103256480666</v>
+        <v>0.1964821116041137</v>
       </c>
       <c r="D89">
-        <v>0.00195775032043457</v>
+        <v>0.005185985565185547</v>
       </c>
       <c r="E89">
-        <v>3.03159700250886E-05</v>
+        <v>0.0007463788509603452</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -5448,25 +5448,25 @@
         <v>104</v>
       </c>
       <c r="I89">
-        <v>-0.2086518052633006</v>
+        <v>-0.2075370215647905</v>
       </c>
       <c r="J89">
-        <v>-0.211019749094629</v>
+        <v>-0.2153899707873476</v>
       </c>
       <c r="K89">
-        <v>-0.2137768850551656</v>
+        <v>-0.2115548193679942</v>
       </c>
       <c r="L89">
-        <v>-0.2096384826902357</v>
+        <v>-0.2060675208638023</v>
       </c>
       <c r="M89">
-        <v>-0.2130307242166274</v>
+        <v>-0.2082013906086388</v>
       </c>
       <c r="N89">
-        <v>-0.2112235292639917</v>
+        <v>-0.2097501446385147</v>
       </c>
       <c r="O89">
-        <v>0.001946958793980266</v>
+        <v>0.003344331338813949</v>
       </c>
       <c r="P89">
         <v>1</v>
@@ -5477,16 +5477,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.171667194366455</v>
+        <v>4.042788124084472</v>
       </c>
       <c r="C90">
-        <v>0.0304756657497731</v>
+        <v>0.09674243557934466</v>
       </c>
       <c r="D90">
-        <v>0.001969146728515625</v>
+        <v>0.004588460922241211</v>
       </c>
       <c r="E90">
-        <v>3.225598078508393E-05</v>
+        <v>0.0004881108021889687</v>
       </c>
       <c r="F90">
         <v>100</v>
@@ -5498,28 +5498,28 @@
         <v>105</v>
       </c>
       <c r="I90">
-        <v>-0.2155376304373212</v>
+        <v>-0.2257495329832965</v>
       </c>
       <c r="J90">
-        <v>-0.2254472135762117</v>
+        <v>-0.2273894869536605</v>
       </c>
       <c r="K90">
-        <v>-0.2343025726059806</v>
+        <v>-0.2290946713421283</v>
       </c>
       <c r="L90">
-        <v>-0.2217694070738395</v>
+        <v>-0.2228928590084917</v>
       </c>
       <c r="M90">
-        <v>-0.2187510512537615</v>
+        <v>-0.2235328371164717</v>
       </c>
       <c r="N90">
-        <v>-0.2231615749894229</v>
+        <v>-0.2257318774808098</v>
       </c>
       <c r="O90">
-        <v>0.006463147117358457</v>
+        <v>0.002321730727070895</v>
       </c>
       <c r="P90">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5527,16 +5527,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2.039852714538574</v>
+        <v>4.985467529296875</v>
       </c>
       <c r="C91">
-        <v>0.03186083717593849</v>
+        <v>0.2193817923357779</v>
       </c>
       <c r="D91">
-        <v>0.001971626281738281</v>
+        <v>0.00438847541809082</v>
       </c>
       <c r="E91">
-        <v>4.074729064909832E-05</v>
+        <v>0.0004895716293030956</v>
       </c>
       <c r="F91">
         <v>100</v>
@@ -5548,28 +5548,28 @@
         <v>106</v>
       </c>
       <c r="I91">
-        <v>-0.2120921623059564</v>
+        <v>-0.2338884440640751</v>
       </c>
       <c r="J91">
-        <v>-0.2187441228735357</v>
+        <v>-0.216745501728806</v>
       </c>
       <c r="K91">
-        <v>-0.2230074362987434</v>
+        <v>-0.2276341459276594</v>
       </c>
       <c r="L91">
-        <v>-0.2178222559184927</v>
+        <v>-0.2109845783553201</v>
       </c>
       <c r="M91">
-        <v>-0.2215650219839341</v>
+        <v>-0.2216800050916057</v>
       </c>
       <c r="N91">
-        <v>-0.2186461998761325</v>
+        <v>-0.2221865350334933</v>
       </c>
       <c r="O91">
-        <v>0.003773162775734187</v>
+        <v>0.008024417596793709</v>
       </c>
       <c r="P91">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5577,16 +5577,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2.238607788085937</v>
+        <v>6.137386274337769</v>
       </c>
       <c r="C92">
-        <v>0.04843505749877489</v>
+        <v>0.4931563619035157</v>
       </c>
       <c r="D92">
-        <v>0.001927661895751953</v>
+        <v>0.004588127136230469</v>
       </c>
       <c r="E92">
-        <v>2.477323923785191E-05</v>
+        <v>0.001016887231616451</v>
       </c>
       <c r="F92">
         <v>100</v>
@@ -5598,28 +5598,28 @@
         <v>107</v>
       </c>
       <c r="I92">
-        <v>-0.2057224010112719</v>
+        <v>-0.2157045818031602</v>
       </c>
       <c r="J92">
-        <v>-0.2220911423246085</v>
+        <v>-0.2221230085976962</v>
       </c>
       <c r="K92">
-        <v>-0.22114984695405</v>
+        <v>-0.2279819408507131</v>
       </c>
       <c r="L92">
-        <v>-0.2204714274315609</v>
+        <v>-0.2171861794902679</v>
       </c>
       <c r="M92">
-        <v>-0.2172697917901262</v>
+        <v>-0.224450606479988</v>
       </c>
       <c r="N92">
-        <v>-0.2173409219023235</v>
+        <v>-0.2214892634443651</v>
       </c>
       <c r="O92">
-        <v>0.006031047275013067</v>
+        <v>0.004545439881969753</v>
       </c>
       <c r="P92">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5627,16 +5627,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2.323028755187988</v>
+        <v>5.725288867950439</v>
       </c>
       <c r="C93">
-        <v>0.04313368670981744</v>
+        <v>0.3304376268961455</v>
       </c>
       <c r="D93">
-        <v>0.001922512054443359</v>
+        <v>0.004387998580932617</v>
       </c>
       <c r="E93">
-        <v>2.491609898204739E-05</v>
+        <v>0.001016316725201523</v>
       </c>
       <c r="F93">
         <v>100</v>
@@ -5648,28 +5648,28 @@
         <v>108</v>
       </c>
       <c r="I93">
-        <v>-0.2082838182059252</v>
+        <v>-0.2105121541936708</v>
       </c>
       <c r="J93">
-        <v>-0.2193472626571026</v>
+        <v>-0.2166158743403394</v>
       </c>
       <c r="K93">
-        <v>-0.2228637877151899</v>
+        <v>-0.2267246186154902</v>
       </c>
       <c r="L93">
-        <v>-0.2146042260860936</v>
+        <v>-0.2156458808010397</v>
       </c>
       <c r="M93">
-        <v>-0.2127147690487312</v>
+        <v>-0.2142012820484069</v>
       </c>
       <c r="N93">
-        <v>-0.2155627727426085</v>
+        <v>-0.2167399619997894</v>
       </c>
       <c r="O93">
-        <v>0.005091960318441667</v>
+        <v>0.005406223545427002</v>
       </c>
       <c r="P93">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5677,16 +5677,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.301597642898559</v>
+        <v>5.875887107849121</v>
       </c>
       <c r="C94">
-        <v>0.04444320807951162</v>
+        <v>0.0938860232350925</v>
       </c>
       <c r="D94">
-        <v>0.00190129280090332</v>
+        <v>0.004592609405517578</v>
       </c>
       <c r="E94">
-        <v>3.055480831833037E-06</v>
+        <v>0.0007937883610314169</v>
       </c>
       <c r="F94">
         <v>100</v>
@@ -5698,28 +5698,28 @@
         <v>109</v>
       </c>
       <c r="I94">
-        <v>-0.2068201686169096</v>
+        <v>-0.2073282563476574</v>
       </c>
       <c r="J94">
-        <v>-0.2183314809922475</v>
+        <v>-0.2133772376735382</v>
       </c>
       <c r="K94">
-        <v>-0.2269045757272528</v>
+        <v>-0.2215946307649029</v>
       </c>
       <c r="L94">
-        <v>-0.2170820726926904</v>
+        <v>-0.2176605930860529</v>
       </c>
       <c r="M94">
-        <v>-0.2172831577170705</v>
+        <v>-0.2151639305505162</v>
       </c>
       <c r="N94">
-        <v>-0.2172842911492342</v>
+        <v>-0.2150249296845335</v>
       </c>
       <c r="O94">
-        <v>0.006374719380328987</v>
+        <v>0.004734568290983591</v>
       </c>
       <c r="P94">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5727,16 +5727,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.285147190093994</v>
+        <v>5.883066701889038</v>
       </c>
       <c r="C95">
-        <v>0.03793135744204197</v>
+        <v>0.273949050725745</v>
       </c>
       <c r="D95">
-        <v>0.002112150192260742</v>
+        <v>0.004188632965087891</v>
       </c>
       <c r="E95">
-        <v>0.0003910137385181182</v>
+        <v>0.0007453716548900663</v>
       </c>
       <c r="F95">
         <v>100</v>
@@ -5748,28 +5748,28 @@
         <v>110</v>
       </c>
       <c r="I95">
-        <v>-0.211349316956703</v>
+        <v>-0.2073643714419822</v>
       </c>
       <c r="J95">
-        <v>-0.2153153842226841</v>
+        <v>-0.2216113629102219</v>
       </c>
       <c r="K95">
-        <v>-0.2203420421920652</v>
+        <v>-0.2262782219746754</v>
       </c>
       <c r="L95">
-        <v>-0.2178489816371207</v>
+        <v>-0.2241542970347053</v>
       </c>
       <c r="M95">
-        <v>-0.2167455221642647</v>
+        <v>-0.2152859712224693</v>
       </c>
       <c r="N95">
-        <v>-0.2163202494345676</v>
+        <v>-0.2189388449168108</v>
       </c>
       <c r="O95">
-        <v>0.002980356348477458</v>
+        <v>0.00686325973955508</v>
       </c>
       <c r="P95">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5777,16 +5777,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.384330320358276</v>
+        <v>6.117439126968383</v>
       </c>
       <c r="C96">
-        <v>0.1133556751644718</v>
+        <v>0.2225942300413974</v>
       </c>
       <c r="D96">
-        <v>0.00196237564086914</v>
+        <v>0.003990840911865234</v>
       </c>
       <c r="E96">
-        <v>3.820843513542309E-05</v>
+        <v>0.0006290930247956219</v>
       </c>
       <c r="F96">
         <v>100</v>
@@ -5798,28 +5798,28 @@
         <v>111</v>
       </c>
       <c r="I96">
-        <v>-0.2106400674457894</v>
+        <v>-0.2074853455432099</v>
       </c>
       <c r="J96">
-        <v>-0.2212180678453285</v>
+        <v>-0.2195408169596776</v>
       </c>
       <c r="K96">
-        <v>-0.2224352759899871</v>
+        <v>-0.2169621040336564</v>
       </c>
       <c r="L96">
-        <v>-0.2178197997210701</v>
+        <v>-0.2104328633608566</v>
       </c>
       <c r="M96">
-        <v>-0.2140283904269352</v>
+        <v>-0.2183699170402802</v>
       </c>
       <c r="N96">
-        <v>-0.2172283202858221</v>
+        <v>-0.2145582093875362</v>
       </c>
       <c r="O96">
-        <v>0.004405109483362247</v>
+        <v>0.004736625079480387</v>
       </c>
       <c r="P96">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5827,16 +5827,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.5273353099823</v>
+        <v>6.443167924880981</v>
       </c>
       <c r="C97">
-        <v>0.1403703634855175</v>
+        <v>0.2080891529020414</v>
       </c>
       <c r="D97">
-        <v>0.001949977874755859</v>
+        <v>0.004189157485961914</v>
       </c>
       <c r="E97">
-        <v>3.474680667605349E-05</v>
+        <v>0.0003990412435060334</v>
       </c>
       <c r="F97">
         <v>100</v>
@@ -5848,28 +5848,28 @@
         <v>112</v>
       </c>
       <c r="I97">
-        <v>-0.2102221353024233</v>
+        <v>-0.2036555012791141</v>
       </c>
       <c r="J97">
-        <v>-0.2145056005696417</v>
+        <v>-0.2186251514780182</v>
       </c>
       <c r="K97">
-        <v>-0.2223286149579172</v>
+        <v>-0.2235402550351147</v>
       </c>
       <c r="L97">
-        <v>-0.2188828989696224</v>
+        <v>-0.2202410110534871</v>
       </c>
       <c r="M97">
-        <v>-0.2172843718749689</v>
+        <v>-0.2170291579901042</v>
       </c>
       <c r="N97">
-        <v>-0.2166447243349147</v>
+        <v>-0.2166182153671677</v>
       </c>
       <c r="O97">
-        <v>0.004087803509187712</v>
+        <v>0.006830342665934884</v>
       </c>
       <c r="P97">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5877,16 +5877,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.679957771301269</v>
+        <v>6.530734968185425</v>
       </c>
       <c r="C98">
-        <v>0.06116292203539405</v>
+        <v>0.1048997286891934</v>
       </c>
       <c r="D98">
-        <v>0.001964426040649414</v>
+        <v>0.004787206649780273</v>
       </c>
       <c r="E98">
-        <v>4.88320829605279E-05</v>
+        <v>0.0009781101678342039</v>
       </c>
       <c r="F98">
         <v>100</v>
@@ -5898,28 +5898,28 @@
         <v>113</v>
       </c>
       <c r="I98">
-        <v>-0.2040672740157545</v>
+        <v>-0.2079574975349656</v>
       </c>
       <c r="J98">
-        <v>-0.2132896418169073</v>
+        <v>-0.2150809433446767</v>
       </c>
       <c r="K98">
-        <v>-0.2189103905932647</v>
+        <v>-0.2236333395858159</v>
       </c>
       <c r="L98">
-        <v>-0.2115461718846946</v>
+        <v>-0.2154394505436064</v>
       </c>
       <c r="M98">
-        <v>-0.2157899610841027</v>
+        <v>-0.2147466710127441</v>
       </c>
       <c r="N98">
-        <v>-0.2127206878789448</v>
+        <v>-0.2153715804043617</v>
       </c>
       <c r="O98">
-        <v>0.004986333835424287</v>
+        <v>0.004974030107882555</v>
       </c>
       <c r="P98">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5927,16 +5927,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.6304274559021</v>
+        <v>6.638646411895752</v>
       </c>
       <c r="C99">
-        <v>0.05516527325079004</v>
+        <v>0.06378379817067874</v>
       </c>
       <c r="D99">
-        <v>0.001942777633666992</v>
+        <v>0.004986047744750977</v>
       </c>
       <c r="E99">
-        <v>3.248083679817346E-05</v>
+        <v>0.0006311280699263698</v>
       </c>
       <c r="F99">
         <v>100</v>
@@ -5948,28 +5948,28 @@
         <v>114</v>
       </c>
       <c r="I99">
-        <v>-0.2122964975653724</v>
+        <v>-0.2040584104894556</v>
       </c>
       <c r="J99">
-        <v>-0.2084505784628981</v>
+        <v>-0.2114211998337343</v>
       </c>
       <c r="K99">
-        <v>-0.2149393819362102</v>
+        <v>-0.2179208120349782</v>
       </c>
       <c r="L99">
-        <v>-0.2153239771699613</v>
+        <v>-0.2107183925348159</v>
       </c>
       <c r="M99">
-        <v>-0.2199302445772449</v>
+        <v>-0.2067739753010336</v>
       </c>
       <c r="N99">
-        <v>-0.2141881359423373</v>
+        <v>-0.2101785580388035</v>
       </c>
       <c r="O99">
-        <v>0.003776881755941958</v>
+        <v>0.004707981871226517</v>
       </c>
       <c r="P99">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5977,16 +5977,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.570494699478149</v>
+        <v>6.63226432800293</v>
       </c>
       <c r="C100">
-        <v>0.1460968175713666</v>
+        <v>0.2076626767168367</v>
       </c>
       <c r="D100">
-        <v>0.001933097839355469</v>
+        <v>0.004188966751098633</v>
       </c>
       <c r="E100">
-        <v>5.49915437444248E-06</v>
+        <v>0.0003977063855465263</v>
       </c>
       <c r="F100">
         <v>100</v>
@@ -5998,28 +5998,28 @@
         <v>115</v>
       </c>
       <c r="I100">
-        <v>-0.2034727574320913</v>
+        <v>-0.2071779261217878</v>
       </c>
       <c r="J100">
-        <v>-0.2108891654233798</v>
+        <v>-0.2106690578259407</v>
       </c>
       <c r="K100">
-        <v>-0.2156253352966767</v>
+        <v>-0.2163239541866578</v>
       </c>
       <c r="L100">
-        <v>-0.2110204874691383</v>
+        <v>-0.2104430948074349</v>
       </c>
       <c r="M100">
-        <v>-0.216204967076378</v>
+        <v>-0.2091912269474183</v>
       </c>
       <c r="N100">
-        <v>-0.2114425425395328</v>
+        <v>-0.2107610519778479</v>
       </c>
       <c r="O100">
-        <v>0.004564608944746179</v>
+        <v>0.003044949332830142</v>
       </c>
       <c r="P100">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6057,7 +6057,7 @@
         <v>121</v>
       </c>
       <c r="D2">
-        <v>0.1718197289417877</v>
+        <v>0.1771208157651235</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6071,7 +6071,7 @@
         <v>122</v>
       </c>
       <c r="D3">
-        <v>0.1956336659664253</v>
+        <v>0.195635414912429</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6085,7 +6085,7 @@
         <v>123</v>
       </c>
       <c r="D4">
-        <v>0.2023400465004621</v>
+        <v>0.207391728383449</v>
       </c>
     </row>
   </sheetData>
